--- a/015 VBA Programming/03-04-the-IFS-function.xlsx
+++ b/015 VBA Programming/03-04-the-IFS-function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web learning\015 VBA Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0629BF85-B1F4-4FB2-BC77-DE0725E0B013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72D54D64-F886-4EA3-BF31-60389FCB078F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F2FA9106-DF88-4008-ACF1-3391E1AA7B37}"/>
   </bookViews>
@@ -51,10 +51,20 @@
     <definedName name="xxxxxxxxxxxxxxxxxxx" localSheetId="1" hidden="1">{"AllDetail",#N/A,FALSE,"Research Budget";"1stQuarter",#N/A,FALSE,"Research Budget";"2nd Quarter",#N/A,FALSE,"Research Budget";"Summary",#N/A,FALSE,"Research Budget"}</definedName>
     <definedName name="xxxxxxxxxxxxxxxxxxx" hidden="1">{"AllDetail",#N/A,FALSE,"Research Budget";"1stQuarter",#N/A,FALSE,"Research Budget";"2nd Quarter",#N/A,FALSE,"Research Budget";"Summary",#N/A,FALSE,"Research Budget"}</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2623,9 +2633,6 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -2651,6 +2658,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="3" xr:uid="{2892A881-F3B9-46AB-B811-5286463C98C3}"/>
@@ -8482,8 +8493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EDEC08-ED9D-4AC0-B859-135DC12E4FE5}">
   <dimension ref="A1:K744"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8500,15 +8511,15 @@
     <col min="10" max="16384" width="17.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:11" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>776</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -8535,10 +8546,10 @@
       <c r="H3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8565,9 +8576,9 @@
       <c r="G4" s="15">
         <v>1</v>
       </c>
-      <c r="H4" s="19" t="e">
-        <f ca="1">ifs(G4=$J$4,$K$4,G4=$J$5,I12:I13,G4=$J$6,$K$6,G4=$J$7,$K$7,$K$8)</f>
-        <v>#NAME?</v>
+      <c r="H4" s="30">
+        <f>_xlfn.IFS(G4=$J$4,$K$4,G4=$J$5,$K$5,G4=$J$6,$K$6,G4=$J$7,$K$7,G4=$J$8,$K$8)</f>
+        <v>0</v>
       </c>
       <c r="J4" s="14">
         <v>5</v>
@@ -8599,9 +8610,9 @@
       <c r="G5" s="15">
         <v>4</v>
       </c>
-      <c r="H5" s="19" t="e">
-        <f t="shared" ref="H5:H68" ca="1" si="1">ifs(G5=$J$4,$K$4,G5=$J$5,$K$5,G5=$J$6,$K$6,G5=$J$7,$K$7,$K$8)</f>
-        <v>#NAME?</v>
+      <c r="H5" s="30">
+        <f t="shared" ref="H5:H68" si="1">_xlfn.IFS(G5=$J$4,$K$4,G5=$J$5,$K$5,G5=$J$6,$K$6,G5=$J$7,$K$7,G5=$J$8,$K$8)</f>
+        <v>1500</v>
       </c>
       <c r="J5" s="14">
         <v>4</v>
@@ -8633,9 +8644,9 @@
       <c r="G6" s="15">
         <v>5</v>
       </c>
-      <c r="H6" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H6" s="30">
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
       <c r="J6" s="14">
         <v>3</v>
@@ -8667,9 +8678,9 @@
       <c r="G7" s="15">
         <v>3</v>
       </c>
-      <c r="H7" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H7" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
       <c r="J7" s="14">
         <v>2</v>
@@ -8701,9 +8712,9 @@
       <c r="G8" s="15">
         <v>4</v>
       </c>
-      <c r="H8" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H8" s="30">
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
       <c r="J8" s="14">
         <v>1</v>
@@ -8735,9 +8746,9 @@
       <c r="G9" s="15">
         <v>2</v>
       </c>
-      <c r="H9" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H9" s="30">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8763,9 +8774,9 @@
       <c r="G10" s="15">
         <v>1</v>
       </c>
-      <c r="H10" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H10" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -8791,9 +8802,9 @@
       <c r="G11" s="15">
         <v>5</v>
       </c>
-      <c r="H11" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H11" s="30">
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8819,9 +8830,9 @@
       <c r="G12" s="15">
         <v>1</v>
       </c>
-      <c r="H12" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H12" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -8847,9 +8858,9 @@
       <c r="G13" s="15">
         <v>4</v>
       </c>
-      <c r="H13" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H13" s="30">
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -8875,9 +8886,9 @@
       <c r="G14" s="15">
         <v>3</v>
       </c>
-      <c r="H14" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H14" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8903,9 +8914,9 @@
       <c r="G15" s="15">
         <v>4</v>
       </c>
-      <c r="H15" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H15" s="30">
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8931,9 +8942,9 @@
       <c r="G16" s="15">
         <v>1</v>
       </c>
-      <c r="H16" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H16" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -8959,9 +8970,9 @@
       <c r="G17" s="15">
         <v>5</v>
       </c>
-      <c r="H17" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H17" s="30">
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -8987,9 +8998,9 @@
       <c r="G18" s="15">
         <v>4</v>
       </c>
-      <c r="H18" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H18" s="30">
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -9015,9 +9026,9 @@
       <c r="G19" s="15">
         <v>3</v>
       </c>
-      <c r="H19" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H19" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -9043,9 +9054,9 @@
       <c r="G20" s="15">
         <v>3</v>
       </c>
-      <c r="H20" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H20" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -9071,9 +9082,9 @@
       <c r="G21" s="15">
         <v>5</v>
       </c>
-      <c r="H21" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H21" s="30">
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -9099,9 +9110,9 @@
       <c r="G22" s="15">
         <v>2</v>
       </c>
-      <c r="H22" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H22" s="30">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -9127,9 +9138,9 @@
       <c r="G23" s="15">
         <v>4</v>
       </c>
-      <c r="H23" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H23" s="30">
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -9155,9 +9166,9 @@
       <c r="G24" s="15">
         <v>5</v>
       </c>
-      <c r="H24" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H24" s="30">
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -9183,9 +9194,9 @@
       <c r="G25" s="15">
         <v>3</v>
       </c>
-      <c r="H25" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H25" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -9211,9 +9222,9 @@
       <c r="G26" s="15">
         <v>2</v>
       </c>
-      <c r="H26" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H26" s="30">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -9239,9 +9250,9 @@
       <c r="G27" s="15">
         <v>3</v>
       </c>
-      <c r="H27" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H27" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -9267,9 +9278,9 @@
       <c r="G28" s="15">
         <v>1</v>
       </c>
-      <c r="H28" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H28" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -9295,9 +9306,9 @@
       <c r="G29" s="15">
         <v>1</v>
       </c>
-      <c r="H29" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H29" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -9323,9 +9334,9 @@
       <c r="G30" s="15">
         <v>1</v>
       </c>
-      <c r="H30" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H30" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -9351,9 +9362,9 @@
       <c r="G31" s="15">
         <v>1</v>
       </c>
-      <c r="H31" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H31" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -9379,9 +9390,9 @@
       <c r="G32" s="15">
         <v>4</v>
       </c>
-      <c r="H32" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H32" s="30">
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -9407,9 +9418,9 @@
       <c r="G33" s="15">
         <v>3</v>
       </c>
-      <c r="H33" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H33" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -9435,9 +9446,9 @@
       <c r="G34" s="15">
         <v>2</v>
       </c>
-      <c r="H34" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H34" s="30">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -9463,9 +9474,9 @@
       <c r="G35" s="15">
         <v>1</v>
       </c>
-      <c r="H35" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H35" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -9491,9 +9502,9 @@
       <c r="G36" s="15">
         <v>3</v>
       </c>
-      <c r="H36" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H36" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -9519,9 +9530,9 @@
       <c r="G37" s="15">
         <v>2</v>
       </c>
-      <c r="H37" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H37" s="30">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -9547,9 +9558,9 @@
       <c r="G38" s="15">
         <v>3</v>
       </c>
-      <c r="H38" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H38" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -9575,9 +9586,9 @@
       <c r="G39" s="15">
         <v>1</v>
       </c>
-      <c r="H39" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H39" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -9603,9 +9614,9 @@
       <c r="G40" s="15">
         <v>3</v>
       </c>
-      <c r="H40" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H40" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -9631,9 +9642,9 @@
       <c r="G41" s="15">
         <v>4</v>
       </c>
-      <c r="H41" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H41" s="30">
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -9659,9 +9670,9 @@
       <c r="G42" s="15">
         <v>5</v>
       </c>
-      <c r="H42" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H42" s="30">
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -9687,9 +9698,9 @@
       <c r="G43" s="15">
         <v>3</v>
       </c>
-      <c r="H43" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H43" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -9715,9 +9726,9 @@
       <c r="G44" s="15">
         <v>2</v>
       </c>
-      <c r="H44" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H44" s="30">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -9743,9 +9754,9 @@
       <c r="G45" s="15">
         <v>3</v>
       </c>
-      <c r="H45" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H45" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -9771,9 +9782,9 @@
       <c r="G46" s="15">
         <v>4</v>
       </c>
-      <c r="H46" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H46" s="30">
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -9799,9 +9810,9 @@
       <c r="G47" s="15">
         <v>5</v>
       </c>
-      <c r="H47" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H47" s="30">
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -9827,9 +9838,9 @@
       <c r="G48" s="15">
         <v>2</v>
       </c>
-      <c r="H48" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H48" s="30">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -9855,9 +9866,9 @@
       <c r="G49" s="15">
         <v>5</v>
       </c>
-      <c r="H49" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H49" s="30">
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -9883,9 +9894,9 @@
       <c r="G50" s="15">
         <v>1</v>
       </c>
-      <c r="H50" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H50" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -9911,9 +9922,9 @@
       <c r="G51" s="15">
         <v>5</v>
       </c>
-      <c r="H51" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H51" s="30">
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -9939,9 +9950,9 @@
       <c r="G52" s="15">
         <v>4</v>
       </c>
-      <c r="H52" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H52" s="30">
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -9967,9 +9978,9 @@
       <c r="G53" s="15">
         <v>3</v>
       </c>
-      <c r="H53" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H53" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -9995,9 +10006,9 @@
       <c r="G54" s="15">
         <v>2</v>
       </c>
-      <c r="H54" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H54" s="30">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -10023,9 +10034,9 @@
       <c r="G55" s="15">
         <v>2</v>
       </c>
-      <c r="H55" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H55" s="30">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -10051,9 +10062,9 @@
       <c r="G56" s="15">
         <v>3</v>
       </c>
-      <c r="H56" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H56" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -10079,9 +10090,9 @@
       <c r="G57" s="15">
         <v>4</v>
       </c>
-      <c r="H57" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H57" s="30">
+        <f t="shared" si="1"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -10107,9 +10118,9 @@
       <c r="G58" s="15">
         <v>3</v>
       </c>
-      <c r="H58" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H58" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -10135,9 +10146,9 @@
       <c r="G59" s="15">
         <v>3</v>
       </c>
-      <c r="H59" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H59" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -10163,9 +10174,9 @@
       <c r="G60" s="15">
         <v>1</v>
       </c>
-      <c r="H60" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H60" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -10191,9 +10202,9 @@
       <c r="G61" s="15">
         <v>1</v>
       </c>
-      <c r="H61" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H61" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -10219,9 +10230,9 @@
       <c r="G62" s="15">
         <v>3</v>
       </c>
-      <c r="H62" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H62" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -10247,9 +10258,9 @@
       <c r="G63" s="15">
         <v>5</v>
       </c>
-      <c r="H63" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H63" s="30">
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -10275,9 +10286,9 @@
       <c r="G64" s="15">
         <v>5</v>
       </c>
-      <c r="H64" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H64" s="30">
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -10303,9 +10314,9 @@
       <c r="G65" s="15">
         <v>5</v>
       </c>
-      <c r="H65" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H65" s="30">
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -10331,9 +10342,9 @@
       <c r="G66" s="15">
         <v>3</v>
       </c>
-      <c r="H66" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H66" s="30">
+        <f t="shared" si="1"/>
+        <v>900</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -10359,9 +10370,9 @@
       <c r="G67" s="15">
         <v>2</v>
       </c>
-      <c r="H67" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H67" s="30">
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -10387,9 +10398,9 @@
       <c r="G68" s="15">
         <v>5</v>
       </c>
-      <c r="H68" s="19" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
+      <c r="H68" s="30">
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -10415,9 +10426,9 @@
       <c r="G69" s="15">
         <v>4</v>
       </c>
-      <c r="H69" s="19" t="e">
-        <f t="shared" ref="H69:H132" ca="1" si="3">ifs(G69=$J$4,$K$4,G69=$J$5,$K$5,G69=$J$6,$K$6,G69=$J$7,$K$7,$K$8)</f>
-        <v>#NAME?</v>
+      <c r="H69" s="30">
+        <f t="shared" ref="H69:H132" si="3">_xlfn.IFS(G69=$J$4,$K$4,G69=$J$5,$K$5,G69=$J$6,$K$6,G69=$J$7,$K$7,G69=$J$8,$K$8)</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -10443,9 +10454,9 @@
       <c r="G70" s="15">
         <v>5</v>
       </c>
-      <c r="H70" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H70" s="30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -10471,9 +10482,9 @@
       <c r="G71" s="15">
         <v>4</v>
       </c>
-      <c r="H71" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H71" s="30">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -10499,9 +10510,9 @@
       <c r="G72" s="15">
         <v>4</v>
       </c>
-      <c r="H72" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H72" s="30">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -10527,9 +10538,9 @@
       <c r="G73" s="15">
         <v>2</v>
       </c>
-      <c r="H73" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H73" s="30">
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -10555,9 +10566,9 @@
       <c r="G74" s="15">
         <v>3</v>
       </c>
-      <c r="H74" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H74" s="30">
+        <f t="shared" si="3"/>
+        <v>900</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -10583,9 +10594,9 @@
       <c r="G75" s="15">
         <v>5</v>
       </c>
-      <c r="H75" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H75" s="30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -10611,9 +10622,9 @@
       <c r="G76" s="15">
         <v>3</v>
       </c>
-      <c r="H76" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H76" s="30">
+        <f t="shared" si="3"/>
+        <v>900</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -10639,9 +10650,9 @@
       <c r="G77" s="15">
         <v>4</v>
       </c>
-      <c r="H77" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H77" s="30">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -10667,9 +10678,9 @@
       <c r="G78" s="15">
         <v>4</v>
       </c>
-      <c r="H78" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H78" s="30">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -10695,9 +10706,9 @@
       <c r="G79" s="15">
         <v>3</v>
       </c>
-      <c r="H79" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H79" s="30">
+        <f t="shared" si="3"/>
+        <v>900</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -10723,9 +10734,9 @@
       <c r="G80" s="15">
         <v>5</v>
       </c>
-      <c r="H80" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H80" s="30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -10751,9 +10762,9 @@
       <c r="G81" s="15">
         <v>3</v>
       </c>
-      <c r="H81" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H81" s="30">
+        <f t="shared" si="3"/>
+        <v>900</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -10779,9 +10790,9 @@
       <c r="G82" s="15">
         <v>5</v>
       </c>
-      <c r="H82" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H82" s="30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -10807,9 +10818,9 @@
       <c r="G83" s="15">
         <v>4</v>
       </c>
-      <c r="H83" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H83" s="30">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -10835,9 +10846,9 @@
       <c r="G84" s="15">
         <v>4</v>
       </c>
-      <c r="H84" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H84" s="30">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -10863,9 +10874,9 @@
       <c r="G85" s="15">
         <v>5</v>
       </c>
-      <c r="H85" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H85" s="30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -10891,9 +10902,9 @@
       <c r="G86" s="15">
         <v>1</v>
       </c>
-      <c r="H86" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H86" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -10919,9 +10930,9 @@
       <c r="G87" s="15">
         <v>2</v>
       </c>
-      <c r="H87" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H87" s="30">
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -10947,9 +10958,9 @@
       <c r="G88" s="15">
         <v>3</v>
       </c>
-      <c r="H88" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H88" s="30">
+        <f t="shared" si="3"/>
+        <v>900</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -10975,9 +10986,9 @@
       <c r="G89" s="15">
         <v>3</v>
       </c>
-      <c r="H89" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H89" s="30">
+        <f t="shared" si="3"/>
+        <v>900</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -11003,9 +11014,9 @@
       <c r="G90" s="15">
         <v>5</v>
       </c>
-      <c r="H90" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H90" s="30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -11031,9 +11042,9 @@
       <c r="G91" s="15">
         <v>4</v>
       </c>
-      <c r="H91" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H91" s="30">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -11059,9 +11070,9 @@
       <c r="G92" s="15">
         <v>3</v>
       </c>
-      <c r="H92" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H92" s="30">
+        <f t="shared" si="3"/>
+        <v>900</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -11087,9 +11098,9 @@
       <c r="G93" s="15">
         <v>1</v>
       </c>
-      <c r="H93" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H93" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -11115,9 +11126,9 @@
       <c r="G94" s="15">
         <v>5</v>
       </c>
-      <c r="H94" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H94" s="30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -11143,9 +11154,9 @@
       <c r="G95" s="15">
         <v>1</v>
       </c>
-      <c r="H95" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H95" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -11171,9 +11182,9 @@
       <c r="G96" s="15">
         <v>5</v>
       </c>
-      <c r="H96" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H96" s="30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -11199,9 +11210,9 @@
       <c r="G97" s="15">
         <v>5</v>
       </c>
-      <c r="H97" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H97" s="30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -11227,9 +11238,9 @@
       <c r="G98" s="15">
         <v>3</v>
       </c>
-      <c r="H98" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H98" s="30">
+        <f t="shared" si="3"/>
+        <v>900</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -11255,9 +11266,9 @@
       <c r="G99" s="15">
         <v>4</v>
       </c>
-      <c r="H99" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H99" s="30">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -11283,9 +11294,9 @@
       <c r="G100" s="15">
         <v>2</v>
       </c>
-      <c r="H100" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H100" s="30">
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -11311,9 +11322,9 @@
       <c r="G101" s="15">
         <v>4</v>
       </c>
-      <c r="H101" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H101" s="30">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -11339,9 +11350,9 @@
       <c r="G102" s="15">
         <v>5</v>
       </c>
-      <c r="H102" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H102" s="30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -11367,9 +11378,9 @@
       <c r="G103" s="15">
         <v>3</v>
       </c>
-      <c r="H103" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H103" s="30">
+        <f t="shared" si="3"/>
+        <v>900</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -11395,9 +11406,9 @@
       <c r="G104" s="15">
         <v>1</v>
       </c>
-      <c r="H104" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H104" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -11423,9 +11434,9 @@
       <c r="G105" s="15">
         <v>4</v>
       </c>
-      <c r="H105" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H105" s="30">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -11451,9 +11462,9 @@
       <c r="G106" s="15">
         <v>2</v>
       </c>
-      <c r="H106" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H106" s="30">
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -11479,9 +11490,9 @@
       <c r="G107" s="15">
         <v>3</v>
       </c>
-      <c r="H107" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H107" s="30">
+        <f t="shared" si="3"/>
+        <v>900</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -11507,9 +11518,9 @@
       <c r="G108" s="15">
         <v>5</v>
       </c>
-      <c r="H108" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H108" s="30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -11535,9 +11546,9 @@
       <c r="G109" s="15">
         <v>4</v>
       </c>
-      <c r="H109" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H109" s="30">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -11563,9 +11574,9 @@
       <c r="G110" s="15">
         <v>1</v>
       </c>
-      <c r="H110" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H110" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -11591,9 +11602,9 @@
       <c r="G111" s="15">
         <v>2</v>
       </c>
-      <c r="H111" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H111" s="30">
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -11619,9 +11630,9 @@
       <c r="G112" s="15">
         <v>5</v>
       </c>
-      <c r="H112" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H112" s="30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -11647,9 +11658,9 @@
       <c r="G113" s="15">
         <v>4</v>
       </c>
-      <c r="H113" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H113" s="30">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -11675,9 +11686,9 @@
       <c r="G114" s="15">
         <v>1</v>
       </c>
-      <c r="H114" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H114" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -11703,9 +11714,9 @@
       <c r="G115" s="15">
         <v>1</v>
       </c>
-      <c r="H115" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H115" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -11731,9 +11742,9 @@
       <c r="G116" s="15">
         <v>2</v>
       </c>
-      <c r="H116" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H116" s="30">
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -11759,9 +11770,9 @@
       <c r="G117" s="15">
         <v>5</v>
       </c>
-      <c r="H117" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H117" s="30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -11787,9 +11798,9 @@
       <c r="G118" s="15">
         <v>4</v>
       </c>
-      <c r="H118" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H118" s="30">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -11815,9 +11826,9 @@
       <c r="G119" s="15">
         <v>5</v>
       </c>
-      <c r="H119" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H119" s="30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -11843,9 +11854,9 @@
       <c r="G120" s="15">
         <v>4</v>
       </c>
-      <c r="H120" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H120" s="30">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -11871,9 +11882,9 @@
       <c r="G121" s="15">
         <v>2</v>
       </c>
-      <c r="H121" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H121" s="30">
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -11899,9 +11910,9 @@
       <c r="G122" s="15">
         <v>2</v>
       </c>
-      <c r="H122" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H122" s="30">
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -11927,9 +11938,9 @@
       <c r="G123" s="15">
         <v>1</v>
       </c>
-      <c r="H123" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H123" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -11955,9 +11966,9 @@
       <c r="G124" s="15">
         <v>3</v>
       </c>
-      <c r="H124" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H124" s="30">
+        <f t="shared" si="3"/>
+        <v>900</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -11983,9 +11994,9 @@
       <c r="G125" s="15">
         <v>5</v>
       </c>
-      <c r="H125" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H125" s="30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -12011,9 +12022,9 @@
       <c r="G126" s="15">
         <v>4</v>
       </c>
-      <c r="H126" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H126" s="30">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -12039,9 +12050,9 @@
       <c r="G127" s="15">
         <v>1</v>
       </c>
-      <c r="H127" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H127" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -12067,9 +12078,9 @@
       <c r="G128" s="15">
         <v>4</v>
       </c>
-      <c r="H128" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H128" s="30">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -12095,9 +12106,9 @@
       <c r="G129" s="15">
         <v>2</v>
       </c>
-      <c r="H129" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H129" s="30">
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -12123,9 +12134,9 @@
       <c r="G130" s="15">
         <v>4</v>
       </c>
-      <c r="H130" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H130" s="30">
+        <f t="shared" si="3"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -12151,9 +12162,9 @@
       <c r="G131" s="15">
         <v>1</v>
       </c>
-      <c r="H131" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H131" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -12179,9 +12190,9 @@
       <c r="G132" s="15">
         <v>5</v>
       </c>
-      <c r="H132" s="19" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="H132" s="30">
+        <f t="shared" si="3"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -12207,9 +12218,9 @@
       <c r="G133" s="15">
         <v>1</v>
       </c>
-      <c r="H133" s="19" t="e">
-        <f t="shared" ref="H133:H196" ca="1" si="5">ifs(G133=$J$4,$K$4,G133=$J$5,$K$5,G133=$J$6,$K$6,G133=$J$7,$K$7,$K$8)</f>
-        <v>#NAME?</v>
+      <c r="H133" s="30">
+        <f t="shared" ref="H133:H196" si="5">_xlfn.IFS(G133=$J$4,$K$4,G133=$J$5,$K$5,G133=$J$6,$K$6,G133=$J$7,$K$7,G133=$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -12235,9 +12246,9 @@
       <c r="G134" s="15">
         <v>1</v>
       </c>
-      <c r="H134" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H134" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -12263,9 +12274,9 @@
       <c r="G135" s="15">
         <v>5</v>
       </c>
-      <c r="H135" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H135" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -12291,9 +12302,9 @@
       <c r="G136" s="15">
         <v>2</v>
       </c>
-      <c r="H136" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H136" s="30">
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -12319,9 +12330,9 @@
       <c r="G137" s="15">
         <v>5</v>
       </c>
-      <c r="H137" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H137" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -12347,9 +12358,9 @@
       <c r="G138" s="15">
         <v>2</v>
       </c>
-      <c r="H138" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H138" s="30">
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -12375,9 +12386,9 @@
       <c r="G139" s="15">
         <v>2</v>
       </c>
-      <c r="H139" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H139" s="30">
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -12403,9 +12414,9 @@
       <c r="G140" s="15">
         <v>3</v>
       </c>
-      <c r="H140" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H140" s="30">
+        <f t="shared" si="5"/>
+        <v>900</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -12431,9 +12442,9 @@
       <c r="G141" s="15">
         <v>3</v>
       </c>
-      <c r="H141" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H141" s="30">
+        <f t="shared" si="5"/>
+        <v>900</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -12459,9 +12470,9 @@
       <c r="G142" s="15">
         <v>5</v>
       </c>
-      <c r="H142" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H142" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -12487,9 +12498,9 @@
       <c r="G143" s="15">
         <v>4</v>
       </c>
-      <c r="H143" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H143" s="30">
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -12515,9 +12526,9 @@
       <c r="G144" s="15">
         <v>3</v>
       </c>
-      <c r="H144" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H144" s="30">
+        <f t="shared" si="5"/>
+        <v>900</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -12543,9 +12554,9 @@
       <c r="G145" s="15">
         <v>4</v>
       </c>
-      <c r="H145" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H145" s="30">
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -12571,9 +12582,9 @@
       <c r="G146" s="15">
         <v>4</v>
       </c>
-      <c r="H146" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H146" s="30">
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -12599,9 +12610,9 @@
       <c r="G147" s="15">
         <v>5</v>
       </c>
-      <c r="H147" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H147" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -12627,9 +12638,9 @@
       <c r="G148" s="15">
         <v>4</v>
       </c>
-      <c r="H148" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H148" s="30">
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -12655,9 +12666,9 @@
       <c r="G149" s="15">
         <v>5</v>
       </c>
-      <c r="H149" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H149" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -12683,9 +12694,9 @@
       <c r="G150" s="15">
         <v>3</v>
       </c>
-      <c r="H150" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H150" s="30">
+        <f t="shared" si="5"/>
+        <v>900</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -12711,9 +12722,9 @@
       <c r="G151" s="15">
         <v>3</v>
       </c>
-      <c r="H151" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H151" s="30">
+        <f t="shared" si="5"/>
+        <v>900</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -12739,9 +12750,9 @@
       <c r="G152" s="15">
         <v>4</v>
       </c>
-      <c r="H152" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H152" s="30">
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -12767,9 +12778,9 @@
       <c r="G153" s="15">
         <v>1</v>
       </c>
-      <c r="H153" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H153" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -12795,9 +12806,9 @@
       <c r="G154" s="15">
         <v>4</v>
       </c>
-      <c r="H154" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H154" s="30">
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -12823,9 +12834,9 @@
       <c r="G155" s="15">
         <v>2</v>
       </c>
-      <c r="H155" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H155" s="30">
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -12851,9 +12862,9 @@
       <c r="G156" s="15">
         <v>2</v>
       </c>
-      <c r="H156" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H156" s="30">
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -12879,9 +12890,9 @@
       <c r="G157" s="15">
         <v>5</v>
       </c>
-      <c r="H157" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H157" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -12907,9 +12918,9 @@
       <c r="G158" s="15">
         <v>1</v>
       </c>
-      <c r="H158" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H158" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -12935,9 +12946,9 @@
       <c r="G159" s="15">
         <v>2</v>
       </c>
-      <c r="H159" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H159" s="30">
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -12963,9 +12974,9 @@
       <c r="G160" s="15">
         <v>1</v>
       </c>
-      <c r="H160" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H160" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -12991,9 +13002,9 @@
       <c r="G161" s="15">
         <v>4</v>
       </c>
-      <c r="H161" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H161" s="30">
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -13019,9 +13030,9 @@
       <c r="G162" s="15">
         <v>2</v>
       </c>
-      <c r="H162" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H162" s="30">
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -13047,9 +13058,9 @@
       <c r="G163" s="15">
         <v>2</v>
       </c>
-      <c r="H163" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H163" s="30">
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -13075,9 +13086,9 @@
       <c r="G164" s="15">
         <v>5</v>
       </c>
-      <c r="H164" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H164" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -13103,9 +13114,9 @@
       <c r="G165" s="15">
         <v>5</v>
       </c>
-      <c r="H165" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H165" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -13131,9 +13142,9 @@
       <c r="G166" s="15">
         <v>5</v>
       </c>
-      <c r="H166" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H166" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -13159,9 +13170,9 @@
       <c r="G167" s="15">
         <v>4</v>
       </c>
-      <c r="H167" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H167" s="30">
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -13187,9 +13198,9 @@
       <c r="G168" s="15">
         <v>4</v>
       </c>
-      <c r="H168" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H168" s="30">
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -13215,9 +13226,9 @@
       <c r="G169" s="15">
         <v>5</v>
       </c>
-      <c r="H169" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H169" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -13243,9 +13254,9 @@
       <c r="G170" s="15">
         <v>3</v>
       </c>
-      <c r="H170" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H170" s="30">
+        <f t="shared" si="5"/>
+        <v>900</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -13271,9 +13282,9 @@
       <c r="G171" s="15">
         <v>3</v>
       </c>
-      <c r="H171" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H171" s="30">
+        <f t="shared" si="5"/>
+        <v>900</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -13299,9 +13310,9 @@
       <c r="G172" s="15">
         <v>5</v>
       </c>
-      <c r="H172" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H172" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -13327,9 +13338,9 @@
       <c r="G173" s="15">
         <v>2</v>
       </c>
-      <c r="H173" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H173" s="30">
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -13355,9 +13366,9 @@
       <c r="G174" s="15">
         <v>3</v>
       </c>
-      <c r="H174" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H174" s="30">
+        <f t="shared" si="5"/>
+        <v>900</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -13383,9 +13394,9 @@
       <c r="G175" s="15">
         <v>5</v>
       </c>
-      <c r="H175" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H175" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -13411,9 +13422,9 @@
       <c r="G176" s="15">
         <v>5</v>
       </c>
-      <c r="H176" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H176" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -13439,9 +13450,9 @@
       <c r="G177" s="15">
         <v>5</v>
       </c>
-      <c r="H177" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H177" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -13467,9 +13478,9 @@
       <c r="G178" s="15">
         <v>4</v>
       </c>
-      <c r="H178" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H178" s="30">
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -13495,9 +13506,9 @@
       <c r="G179" s="15">
         <v>4</v>
       </c>
-      <c r="H179" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H179" s="30">
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -13523,9 +13534,9 @@
       <c r="G180" s="15">
         <v>1</v>
       </c>
-      <c r="H180" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H180" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -13551,9 +13562,9 @@
       <c r="G181" s="15">
         <v>4</v>
       </c>
-      <c r="H181" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H181" s="30">
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -13579,9 +13590,9 @@
       <c r="G182" s="15">
         <v>1</v>
       </c>
-      <c r="H182" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H182" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -13607,9 +13618,9 @@
       <c r="G183" s="15">
         <v>1</v>
       </c>
-      <c r="H183" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H183" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -13635,9 +13646,9 @@
       <c r="G184" s="15">
         <v>5</v>
       </c>
-      <c r="H184" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H184" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -13663,9 +13674,9 @@
       <c r="G185" s="15">
         <v>5</v>
       </c>
-      <c r="H185" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H185" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -13691,9 +13702,9 @@
       <c r="G186" s="15">
         <v>5</v>
       </c>
-      <c r="H186" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H186" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -13719,9 +13730,9 @@
       <c r="G187" s="15">
         <v>4</v>
       </c>
-      <c r="H187" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H187" s="30">
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -13747,9 +13758,9 @@
       <c r="G188" s="15">
         <v>3</v>
       </c>
-      <c r="H188" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H188" s="30">
+        <f t="shared" si="5"/>
+        <v>900</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -13775,9 +13786,9 @@
       <c r="G189" s="15">
         <v>3</v>
       </c>
-      <c r="H189" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H189" s="30">
+        <f t="shared" si="5"/>
+        <v>900</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -13803,9 +13814,9 @@
       <c r="G190" s="15">
         <v>5</v>
       </c>
-      <c r="H190" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H190" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -13831,9 +13842,9 @@
       <c r="G191" s="15">
         <v>1</v>
       </c>
-      <c r="H191" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H191" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -13859,9 +13870,9 @@
       <c r="G192" s="15">
         <v>5</v>
       </c>
-      <c r="H192" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H192" s="30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -13887,9 +13898,9 @@
       <c r="G193" s="15">
         <v>2</v>
       </c>
-      <c r="H193" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H193" s="30">
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -13915,9 +13926,9 @@
       <c r="G194" s="15">
         <v>4</v>
       </c>
-      <c r="H194" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H194" s="30">
+        <f t="shared" si="5"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -13943,9 +13954,9 @@
       <c r="G195" s="15">
         <v>3</v>
       </c>
-      <c r="H195" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H195" s="30">
+        <f t="shared" si="5"/>
+        <v>900</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -13971,9 +13982,9 @@
       <c r="G196" s="15">
         <v>3</v>
       </c>
-      <c r="H196" s="19" t="e">
-        <f t="shared" ca="1" si="5"/>
-        <v>#NAME?</v>
+      <c r="H196" s="30">
+        <f t="shared" si="5"/>
+        <v>900</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -13999,9 +14010,9 @@
       <c r="G197" s="15">
         <v>1</v>
       </c>
-      <c r="H197" s="19" t="e">
-        <f t="shared" ref="H197:H260" ca="1" si="7">ifs(G197=$J$4,$K$4,G197=$J$5,$K$5,G197=$J$6,$K$6,G197=$J$7,$K$7,$K$8)</f>
-        <v>#NAME?</v>
+      <c r="H197" s="30">
+        <f t="shared" ref="H197:H260" si="7">_xlfn.IFS(G197=$J$4,$K$4,G197=$J$5,$K$5,G197=$J$6,$K$6,G197=$J$7,$K$7,G197=$J$8,$K$8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -14027,9 +14038,9 @@
       <c r="G198" s="15">
         <v>4</v>
       </c>
-      <c r="H198" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H198" s="30">
+        <f t="shared" si="7"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -14055,9 +14066,9 @@
       <c r="G199" s="15">
         <v>4</v>
       </c>
-      <c r="H199" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H199" s="30">
+        <f t="shared" si="7"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -14083,9 +14094,9 @@
       <c r="G200" s="15">
         <v>4</v>
       </c>
-      <c r="H200" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H200" s="30">
+        <f t="shared" si="7"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -14111,9 +14122,9 @@
       <c r="G201" s="15">
         <v>5</v>
       </c>
-      <c r="H201" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H201" s="30">
+        <f t="shared" si="7"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -14139,9 +14150,9 @@
       <c r="G202" s="15">
         <v>4</v>
       </c>
-      <c r="H202" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H202" s="30">
+        <f t="shared" si="7"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -14167,9 +14178,9 @@
       <c r="G203" s="15">
         <v>5</v>
       </c>
-      <c r="H203" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H203" s="30">
+        <f t="shared" si="7"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -14195,9 +14206,9 @@
       <c r="G204" s="15">
         <v>4</v>
       </c>
-      <c r="H204" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H204" s="30">
+        <f t="shared" si="7"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -14223,9 +14234,9 @@
       <c r="G205" s="15">
         <v>4</v>
       </c>
-      <c r="H205" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H205" s="30">
+        <f t="shared" si="7"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -14251,9 +14262,9 @@
       <c r="G206" s="15">
         <v>3</v>
       </c>
-      <c r="H206" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H206" s="30">
+        <f t="shared" si="7"/>
+        <v>900</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -14279,9 +14290,9 @@
       <c r="G207" s="15">
         <v>5</v>
       </c>
-      <c r="H207" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H207" s="30">
+        <f t="shared" si="7"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -14307,9 +14318,9 @@
       <c r="G208" s="15">
         <v>2</v>
       </c>
-      <c r="H208" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H208" s="30">
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -14335,9 +14346,9 @@
       <c r="G209" s="15">
         <v>2</v>
       </c>
-      <c r="H209" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H209" s="30">
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -14363,9 +14374,9 @@
       <c r="G210" s="15">
         <v>2</v>
       </c>
-      <c r="H210" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H210" s="30">
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -14391,9 +14402,9 @@
       <c r="G211" s="15">
         <v>4</v>
       </c>
-      <c r="H211" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H211" s="30">
+        <f t="shared" si="7"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -14419,9 +14430,9 @@
       <c r="G212" s="15">
         <v>4</v>
       </c>
-      <c r="H212" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H212" s="30">
+        <f t="shared" si="7"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -14447,9 +14458,9 @@
       <c r="G213" s="15">
         <v>2</v>
       </c>
-      <c r="H213" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H213" s="30">
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -14475,9 +14486,9 @@
       <c r="G214" s="15">
         <v>3</v>
       </c>
-      <c r="H214" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H214" s="30">
+        <f t="shared" si="7"/>
+        <v>900</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -14503,9 +14514,9 @@
       <c r="G215" s="15">
         <v>1</v>
       </c>
-      <c r="H215" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H215" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -14531,9 +14542,9 @@
       <c r="G216" s="15">
         <v>5</v>
       </c>
-      <c r="H216" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H216" s="30">
+        <f t="shared" si="7"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -14551,7 +14562,7 @@
       </c>
       <c r="E217" s="17">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F217" s="18">
         <v>99925</v>
@@ -14559,9 +14570,9 @@
       <c r="G217" s="15">
         <v>2</v>
       </c>
-      <c r="H217" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H217" s="30">
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -14587,9 +14598,9 @@
       <c r="G218" s="15">
         <v>2</v>
       </c>
-      <c r="H218" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H218" s="30">
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -14615,9 +14626,9 @@
       <c r="G219" s="15">
         <v>3</v>
       </c>
-      <c r="H219" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H219" s="30">
+        <f t="shared" si="7"/>
+        <v>900</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -14643,9 +14654,9 @@
       <c r="G220" s="15">
         <v>5</v>
       </c>
-      <c r="H220" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H220" s="30">
+        <f t="shared" si="7"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -14671,9 +14682,9 @@
       <c r="G221" s="15">
         <v>2</v>
       </c>
-      <c r="H221" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H221" s="30">
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -14699,9 +14710,9 @@
       <c r="G222" s="15">
         <v>3</v>
       </c>
-      <c r="H222" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H222" s="30">
+        <f t="shared" si="7"/>
+        <v>900</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -14727,9 +14738,9 @@
       <c r="G223" s="15">
         <v>2</v>
       </c>
-      <c r="H223" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H223" s="30">
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -14755,9 +14766,9 @@
       <c r="G224" s="15">
         <v>4</v>
       </c>
-      <c r="H224" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H224" s="30">
+        <f t="shared" si="7"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -14783,9 +14794,9 @@
       <c r="G225" s="15">
         <v>1</v>
       </c>
-      <c r="H225" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H225" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -14811,9 +14822,9 @@
       <c r="G226" s="15">
         <v>1</v>
       </c>
-      <c r="H226" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H226" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -14839,9 +14850,9 @@
       <c r="G227" s="15">
         <v>5</v>
       </c>
-      <c r="H227" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H227" s="30">
+        <f t="shared" si="7"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -14867,9 +14878,9 @@
       <c r="G228" s="15">
         <v>4</v>
       </c>
-      <c r="H228" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H228" s="30">
+        <f t="shared" si="7"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -14895,9 +14906,9 @@
       <c r="G229" s="15">
         <v>3</v>
       </c>
-      <c r="H229" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H229" s="30">
+        <f t="shared" si="7"/>
+        <v>900</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -14923,9 +14934,9 @@
       <c r="G230" s="15">
         <v>3</v>
       </c>
-      <c r="H230" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H230" s="30">
+        <f t="shared" si="7"/>
+        <v>900</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -14951,9 +14962,9 @@
       <c r="G231" s="15">
         <v>3</v>
       </c>
-      <c r="H231" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H231" s="30">
+        <f t="shared" si="7"/>
+        <v>900</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -14979,9 +14990,9 @@
       <c r="G232" s="15">
         <v>2</v>
       </c>
-      <c r="H232" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H232" s="30">
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -15007,9 +15018,9 @@
       <c r="G233" s="15">
         <v>1</v>
       </c>
-      <c r="H233" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H233" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -15035,9 +15046,9 @@
       <c r="G234" s="15">
         <v>1</v>
       </c>
-      <c r="H234" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H234" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -15063,9 +15074,9 @@
       <c r="G235" s="15">
         <v>4</v>
       </c>
-      <c r="H235" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H235" s="30">
+        <f t="shared" si="7"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -15091,9 +15102,9 @@
       <c r="G236" s="15">
         <v>3</v>
       </c>
-      <c r="H236" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H236" s="30">
+        <f t="shared" si="7"/>
+        <v>900</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -15119,9 +15130,9 @@
       <c r="G237" s="15">
         <v>1</v>
       </c>
-      <c r="H237" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H237" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -15147,9 +15158,9 @@
       <c r="G238" s="15">
         <v>1</v>
       </c>
-      <c r="H238" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H238" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -15175,9 +15186,9 @@
       <c r="G239" s="15">
         <v>1</v>
       </c>
-      <c r="H239" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H239" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -15203,9 +15214,9 @@
       <c r="G240" s="15">
         <v>5</v>
       </c>
-      <c r="H240" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H240" s="30">
+        <f t="shared" si="7"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -15231,9 +15242,9 @@
       <c r="G241" s="15">
         <v>2</v>
       </c>
-      <c r="H241" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H241" s="30">
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -15259,9 +15270,9 @@
       <c r="G242" s="15">
         <v>2</v>
       </c>
-      <c r="H242" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H242" s="30">
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -15287,9 +15298,9 @@
       <c r="G243" s="15">
         <v>5</v>
       </c>
-      <c r="H243" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H243" s="30">
+        <f t="shared" si="7"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -15315,9 +15326,9 @@
       <c r="G244" s="15">
         <v>3</v>
       </c>
-      <c r="H244" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H244" s="30">
+        <f t="shared" si="7"/>
+        <v>900</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -15343,9 +15354,9 @@
       <c r="G245" s="15">
         <v>4</v>
       </c>
-      <c r="H245" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H245" s="30">
+        <f t="shared" si="7"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -15371,9 +15382,9 @@
       <c r="G246" s="15">
         <v>4</v>
       </c>
-      <c r="H246" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H246" s="30">
+        <f t="shared" si="7"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -15399,9 +15410,9 @@
       <c r="G247" s="15">
         <v>2</v>
       </c>
-      <c r="H247" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H247" s="30">
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -15427,9 +15438,9 @@
       <c r="G248" s="15">
         <v>5</v>
       </c>
-      <c r="H248" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H248" s="30">
+        <f t="shared" si="7"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -15455,9 +15466,9 @@
       <c r="G249" s="15">
         <v>3</v>
       </c>
-      <c r="H249" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H249" s="30">
+        <f t="shared" si="7"/>
+        <v>900</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -15483,9 +15494,9 @@
       <c r="G250" s="15">
         <v>1</v>
       </c>
-      <c r="H250" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H250" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -15511,9 +15522,9 @@
       <c r="G251" s="15">
         <v>5</v>
       </c>
-      <c r="H251" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H251" s="30">
+        <f t="shared" si="7"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -15539,9 +15550,9 @@
       <c r="G252" s="15">
         <v>5</v>
       </c>
-      <c r="H252" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H252" s="30">
+        <f t="shared" si="7"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -15567,9 +15578,9 @@
       <c r="G253" s="15">
         <v>5</v>
       </c>
-      <c r="H253" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H253" s="30">
+        <f t="shared" si="7"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -15595,9 +15606,9 @@
       <c r="G254" s="15">
         <v>4</v>
       </c>
-      <c r="H254" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H254" s="30">
+        <f t="shared" si="7"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -15623,9 +15634,9 @@
       <c r="G255" s="15">
         <v>3</v>
       </c>
-      <c r="H255" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H255" s="30">
+        <f t="shared" si="7"/>
+        <v>900</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -15651,9 +15662,9 @@
       <c r="G256" s="15">
         <v>3</v>
       </c>
-      <c r="H256" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H256" s="30">
+        <f t="shared" si="7"/>
+        <v>900</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -15679,9 +15690,9 @@
       <c r="G257" s="15">
         <v>3</v>
       </c>
-      <c r="H257" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H257" s="30">
+        <f t="shared" si="7"/>
+        <v>900</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
@@ -15707,9 +15718,9 @@
       <c r="G258" s="15">
         <v>5</v>
       </c>
-      <c r="H258" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H258" s="30">
+        <f t="shared" si="7"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
@@ -15735,9 +15746,9 @@
       <c r="G259" s="15">
         <v>1</v>
       </c>
-      <c r="H259" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H259" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
@@ -15763,9 +15774,9 @@
       <c r="G260" s="15">
         <v>2</v>
       </c>
-      <c r="H260" s="19" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
+      <c r="H260" s="30">
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
@@ -15791,9 +15802,9 @@
       <c r="G261" s="15">
         <v>5</v>
       </c>
-      <c r="H261" s="19" t="e">
-        <f t="shared" ref="H261:H324" ca="1" si="9">ifs(G261=$J$4,$K$4,G261=$J$5,$K$5,G261=$J$6,$K$6,G261=$J$7,$K$7,$K$8)</f>
-        <v>#NAME?</v>
+      <c r="H261" s="30">
+        <f t="shared" ref="H261:H324" si="9">_xlfn.IFS(G261=$J$4,$K$4,G261=$J$5,$K$5,G261=$J$6,$K$6,G261=$J$7,$K$7,G261=$J$8,$K$8)</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
@@ -15819,9 +15830,9 @@
       <c r="G262" s="15">
         <v>1</v>
       </c>
-      <c r="H262" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H262" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -15847,9 +15858,9 @@
       <c r="G263" s="15">
         <v>2</v>
       </c>
-      <c r="H263" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H263" s="30">
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -15875,9 +15886,9 @@
       <c r="G264" s="15">
         <v>1</v>
       </c>
-      <c r="H264" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H264" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
@@ -15903,9 +15914,9 @@
       <c r="G265" s="15">
         <v>3</v>
       </c>
-      <c r="H265" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H265" s="30">
+        <f t="shared" si="9"/>
+        <v>900</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
@@ -15931,9 +15942,9 @@
       <c r="G266" s="15">
         <v>2</v>
       </c>
-      <c r="H266" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H266" s="30">
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
@@ -15959,9 +15970,9 @@
       <c r="G267" s="15">
         <v>5</v>
       </c>
-      <c r="H267" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H267" s="30">
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
@@ -15987,9 +15998,9 @@
       <c r="G268" s="15">
         <v>1</v>
       </c>
-      <c r="H268" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H268" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -16015,9 +16026,9 @@
       <c r="G269" s="15">
         <v>2</v>
       </c>
-      <c r="H269" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H269" s="30">
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -16043,9 +16054,9 @@
       <c r="G270" s="15">
         <v>2</v>
       </c>
-      <c r="H270" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H270" s="30">
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -16071,9 +16082,9 @@
       <c r="G271" s="15">
         <v>4</v>
       </c>
-      <c r="H271" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H271" s="30">
+        <f t="shared" si="9"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -16099,9 +16110,9 @@
       <c r="G272" s="15">
         <v>5</v>
       </c>
-      <c r="H272" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H272" s="30">
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -16127,9 +16138,9 @@
       <c r="G273" s="15">
         <v>2</v>
       </c>
-      <c r="H273" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H273" s="30">
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
@@ -16155,9 +16166,9 @@
       <c r="G274" s="15">
         <v>4</v>
       </c>
-      <c r="H274" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H274" s="30">
+        <f t="shared" si="9"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -16183,9 +16194,9 @@
       <c r="G275" s="15">
         <v>1</v>
       </c>
-      <c r="H275" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H275" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -16211,9 +16222,9 @@
       <c r="G276" s="15">
         <v>3</v>
       </c>
-      <c r="H276" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H276" s="30">
+        <f t="shared" si="9"/>
+        <v>900</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -16239,9 +16250,9 @@
       <c r="G277" s="15">
         <v>1</v>
       </c>
-      <c r="H277" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H277" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -16267,9 +16278,9 @@
       <c r="G278" s="15">
         <v>3</v>
       </c>
-      <c r="H278" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H278" s="30">
+        <f t="shared" si="9"/>
+        <v>900</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -16295,9 +16306,9 @@
       <c r="G279" s="15">
         <v>5</v>
       </c>
-      <c r="H279" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H279" s="30">
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -16323,9 +16334,9 @@
       <c r="G280" s="15">
         <v>2</v>
       </c>
-      <c r="H280" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H280" s="30">
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -16351,9 +16362,9 @@
       <c r="G281" s="15">
         <v>3</v>
       </c>
-      <c r="H281" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H281" s="30">
+        <f t="shared" si="9"/>
+        <v>900</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -16379,9 +16390,9 @@
       <c r="G282" s="15">
         <v>3</v>
       </c>
-      <c r="H282" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H282" s="30">
+        <f t="shared" si="9"/>
+        <v>900</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
@@ -16407,9 +16418,9 @@
       <c r="G283" s="15">
         <v>1</v>
       </c>
-      <c r="H283" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H283" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
@@ -16435,9 +16446,9 @@
       <c r="G284" s="15">
         <v>5</v>
       </c>
-      <c r="H284" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H284" s="30">
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -16463,9 +16474,9 @@
       <c r="G285" s="15">
         <v>1</v>
       </c>
-      <c r="H285" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H285" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
@@ -16491,9 +16502,9 @@
       <c r="G286" s="15">
         <v>1</v>
       </c>
-      <c r="H286" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H286" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
@@ -16519,9 +16530,9 @@
       <c r="G287" s="15">
         <v>1</v>
       </c>
-      <c r="H287" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H287" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
@@ -16547,9 +16558,9 @@
       <c r="G288" s="15">
         <v>4</v>
       </c>
-      <c r="H288" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H288" s="30">
+        <f t="shared" si="9"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
@@ -16575,9 +16586,9 @@
       <c r="G289" s="15">
         <v>2</v>
       </c>
-      <c r="H289" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H289" s="30">
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
@@ -16603,9 +16614,9 @@
       <c r="G290" s="15">
         <v>5</v>
       </c>
-      <c r="H290" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H290" s="30">
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
@@ -16631,9 +16642,9 @@
       <c r="G291" s="15">
         <v>1</v>
       </c>
-      <c r="H291" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H291" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
@@ -16659,9 +16670,9 @@
       <c r="G292" s="15">
         <v>3</v>
       </c>
-      <c r="H292" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H292" s="30">
+        <f t="shared" si="9"/>
+        <v>900</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -16687,9 +16698,9 @@
       <c r="G293" s="15">
         <v>2</v>
       </c>
-      <c r="H293" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H293" s="30">
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
@@ -16715,9 +16726,9 @@
       <c r="G294" s="15">
         <v>4</v>
       </c>
-      <c r="H294" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H294" s="30">
+        <f t="shared" si="9"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
@@ -16743,9 +16754,9 @@
       <c r="G295" s="15">
         <v>5</v>
       </c>
-      <c r="H295" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H295" s="30">
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
@@ -16771,9 +16782,9 @@
       <c r="G296" s="15">
         <v>1</v>
       </c>
-      <c r="H296" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H296" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
@@ -16799,9 +16810,9 @@
       <c r="G297" s="15">
         <v>2</v>
       </c>
-      <c r="H297" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H297" s="30">
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
@@ -16827,9 +16838,9 @@
       <c r="G298" s="15">
         <v>4</v>
       </c>
-      <c r="H298" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H298" s="30">
+        <f t="shared" si="9"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
@@ -16855,9 +16866,9 @@
       <c r="G299" s="15">
         <v>3</v>
       </c>
-      <c r="H299" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H299" s="30">
+        <f t="shared" si="9"/>
+        <v>900</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
@@ -16883,9 +16894,9 @@
       <c r="G300" s="15">
         <v>5</v>
       </c>
-      <c r="H300" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H300" s="30">
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
@@ -16911,9 +16922,9 @@
       <c r="G301" s="15">
         <v>2</v>
       </c>
-      <c r="H301" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H301" s="30">
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
@@ -16939,9 +16950,9 @@
       <c r="G302" s="15">
         <v>3</v>
       </c>
-      <c r="H302" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H302" s="30">
+        <f t="shared" si="9"/>
+        <v>900</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
@@ -16967,9 +16978,9 @@
       <c r="G303" s="15">
         <v>5</v>
       </c>
-      <c r="H303" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H303" s="30">
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
@@ -16995,9 +17006,9 @@
       <c r="G304" s="15">
         <v>2</v>
       </c>
-      <c r="H304" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H304" s="30">
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -17023,9 +17034,9 @@
       <c r="G305" s="15">
         <v>3</v>
       </c>
-      <c r="H305" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H305" s="30">
+        <f t="shared" si="9"/>
+        <v>900</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
@@ -17051,9 +17062,9 @@
       <c r="G306" s="15">
         <v>5</v>
       </c>
-      <c r="H306" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H306" s="30">
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
@@ -17079,9 +17090,9 @@
       <c r="G307" s="15">
         <v>3</v>
       </c>
-      <c r="H307" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H307" s="30">
+        <f t="shared" si="9"/>
+        <v>900</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -17107,9 +17118,9 @@
       <c r="G308" s="15">
         <v>5</v>
       </c>
-      <c r="H308" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H308" s="30">
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -17135,9 +17146,9 @@
       <c r="G309" s="15">
         <v>4</v>
       </c>
-      <c r="H309" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H309" s="30">
+        <f t="shared" si="9"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
@@ -17163,9 +17174,9 @@
       <c r="G310" s="15">
         <v>4</v>
       </c>
-      <c r="H310" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H310" s="30">
+        <f t="shared" si="9"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
@@ -17191,9 +17202,9 @@
       <c r="G311" s="15">
         <v>5</v>
       </c>
-      <c r="H311" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H311" s="30">
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
@@ -17219,9 +17230,9 @@
       <c r="G312" s="15">
         <v>4</v>
       </c>
-      <c r="H312" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H312" s="30">
+        <f t="shared" si="9"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
@@ -17247,9 +17258,9 @@
       <c r="G313" s="15">
         <v>3</v>
       </c>
-      <c r="H313" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H313" s="30">
+        <f t="shared" si="9"/>
+        <v>900</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
@@ -17275,9 +17286,9 @@
       <c r="G314" s="15">
         <v>4</v>
       </c>
-      <c r="H314" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H314" s="30">
+        <f t="shared" si="9"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -17303,9 +17314,9 @@
       <c r="G315" s="15">
         <v>3</v>
       </c>
-      <c r="H315" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H315" s="30">
+        <f t="shared" si="9"/>
+        <v>900</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
@@ -17331,9 +17342,9 @@
       <c r="G316" s="15">
         <v>4</v>
       </c>
-      <c r="H316" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H316" s="30">
+        <f t="shared" si="9"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
@@ -17359,9 +17370,9 @@
       <c r="G317" s="15">
         <v>5</v>
       </c>
-      <c r="H317" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H317" s="30">
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
@@ -17387,9 +17398,9 @@
       <c r="G318" s="15">
         <v>3</v>
       </c>
-      <c r="H318" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H318" s="30">
+        <f t="shared" si="9"/>
+        <v>900</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
@@ -17415,9 +17426,9 @@
       <c r="G319" s="15">
         <v>4</v>
       </c>
-      <c r="H319" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H319" s="30">
+        <f t="shared" si="9"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
@@ -17443,9 +17454,9 @@
       <c r="G320" s="15">
         <v>1</v>
       </c>
-      <c r="H320" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H320" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
@@ -17471,9 +17482,9 @@
       <c r="G321" s="15">
         <v>2</v>
       </c>
-      <c r="H321" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H321" s="30">
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
@@ -17499,9 +17510,9 @@
       <c r="G322" s="15">
         <v>5</v>
       </c>
-      <c r="H322" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H322" s="30">
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
@@ -17527,9 +17538,9 @@
       <c r="G323" s="15">
         <v>2</v>
       </c>
-      <c r="H323" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H323" s="30">
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
@@ -17555,9 +17566,9 @@
       <c r="G324" s="15">
         <v>5</v>
       </c>
-      <c r="H324" s="19" t="e">
-        <f t="shared" ca="1" si="9"/>
-        <v>#NAME?</v>
+      <c r="H324" s="30">
+        <f t="shared" si="9"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
@@ -17583,9 +17594,9 @@
       <c r="G325" s="15">
         <v>2</v>
       </c>
-      <c r="H325" s="19" t="e">
-        <f t="shared" ref="H325:H388" ca="1" si="11">ifs(G325=$J$4,$K$4,G325=$J$5,$K$5,G325=$J$6,$K$6,G325=$J$7,$K$7,$K$8)</f>
-        <v>#NAME?</v>
+      <c r="H325" s="30">
+        <f t="shared" ref="H325:H388" si="11">_xlfn.IFS(G325=$J$4,$K$4,G325=$J$5,$K$5,G325=$J$6,$K$6,G325=$J$7,$K$7,G325=$J$8,$K$8)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
@@ -17611,9 +17622,9 @@
       <c r="G326" s="15">
         <v>5</v>
       </c>
-      <c r="H326" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H326" s="30">
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
@@ -17639,9 +17650,9 @@
       <c r="G327" s="15">
         <v>3</v>
       </c>
-      <c r="H327" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H327" s="30">
+        <f t="shared" si="11"/>
+        <v>900</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
@@ -17667,9 +17678,9 @@
       <c r="G328" s="15">
         <v>4</v>
       </c>
-      <c r="H328" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H328" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
@@ -17695,9 +17706,9 @@
       <c r="G329" s="15">
         <v>1</v>
       </c>
-      <c r="H329" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H329" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
@@ -17723,9 +17734,9 @@
       <c r="G330" s="15">
         <v>5</v>
       </c>
-      <c r="H330" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H330" s="30">
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
@@ -17751,9 +17762,9 @@
       <c r="G331" s="15">
         <v>5</v>
       </c>
-      <c r="H331" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H331" s="30">
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
@@ -17779,9 +17790,9 @@
       <c r="G332" s="15">
         <v>3</v>
       </c>
-      <c r="H332" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H332" s="30">
+        <f t="shared" si="11"/>
+        <v>900</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
@@ -17807,9 +17818,9 @@
       <c r="G333" s="15">
         <v>1</v>
       </c>
-      <c r="H333" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H333" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
@@ -17835,9 +17846,9 @@
       <c r="G334" s="15">
         <v>4</v>
       </c>
-      <c r="H334" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H334" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
@@ -17863,9 +17874,9 @@
       <c r="G335" s="15">
         <v>1</v>
       </c>
-      <c r="H335" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H335" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
@@ -17891,9 +17902,9 @@
       <c r="G336" s="15">
         <v>2</v>
       </c>
-      <c r="H336" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H336" s="30">
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
@@ -17919,9 +17930,9 @@
       <c r="G337" s="15">
         <v>2</v>
       </c>
-      <c r="H337" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H337" s="30">
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
@@ -17947,9 +17958,9 @@
       <c r="G338" s="15">
         <v>5</v>
       </c>
-      <c r="H338" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H338" s="30">
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
@@ -17975,9 +17986,9 @@
       <c r="G339" s="15">
         <v>5</v>
       </c>
-      <c r="H339" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H339" s="30">
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
@@ -18003,9 +18014,9 @@
       <c r="G340" s="15">
         <v>3</v>
       </c>
-      <c r="H340" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H340" s="30">
+        <f t="shared" si="11"/>
+        <v>900</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
@@ -18031,9 +18042,9 @@
       <c r="G341" s="15">
         <v>4</v>
       </c>
-      <c r="H341" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H341" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
@@ -18059,9 +18070,9 @@
       <c r="G342" s="15">
         <v>2</v>
       </c>
-      <c r="H342" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H342" s="30">
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
@@ -18087,9 +18098,9 @@
       <c r="G343" s="15">
         <v>4</v>
       </c>
-      <c r="H343" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H343" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
@@ -18115,9 +18126,9 @@
       <c r="G344" s="15">
         <v>4</v>
       </c>
-      <c r="H344" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H344" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
@@ -18143,9 +18154,9 @@
       <c r="G345" s="15">
         <v>3</v>
       </c>
-      <c r="H345" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H345" s="30">
+        <f t="shared" si="11"/>
+        <v>900</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
@@ -18171,9 +18182,9 @@
       <c r="G346" s="15">
         <v>5</v>
       </c>
-      <c r="H346" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H346" s="30">
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
@@ -18199,9 +18210,9 @@
       <c r="G347" s="15">
         <v>5</v>
       </c>
-      <c r="H347" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H347" s="30">
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
@@ -18227,9 +18238,9 @@
       <c r="G348" s="15">
         <v>4</v>
       </c>
-      <c r="H348" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H348" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
@@ -18255,9 +18266,9 @@
       <c r="G349" s="15">
         <v>5</v>
       </c>
-      <c r="H349" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H349" s="30">
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
@@ -18283,9 +18294,9 @@
       <c r="G350" s="15">
         <v>5</v>
       </c>
-      <c r="H350" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H350" s="30">
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
@@ -18311,9 +18322,9 @@
       <c r="G351" s="15">
         <v>5</v>
       </c>
-      <c r="H351" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H351" s="30">
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
@@ -18339,9 +18350,9 @@
       <c r="G352" s="15">
         <v>2</v>
       </c>
-      <c r="H352" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H352" s="30">
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
@@ -18367,9 +18378,9 @@
       <c r="G353" s="15">
         <v>4</v>
       </c>
-      <c r="H353" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H353" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
@@ -18395,9 +18406,9 @@
       <c r="G354" s="15">
         <v>4</v>
       </c>
-      <c r="H354" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H354" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
@@ -18423,9 +18434,9 @@
       <c r="G355" s="15">
         <v>5</v>
       </c>
-      <c r="H355" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H355" s="30">
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
@@ -18451,9 +18462,9 @@
       <c r="G356" s="15">
         <v>5</v>
       </c>
-      <c r="H356" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H356" s="30">
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
@@ -18479,9 +18490,9 @@
       <c r="G357" s="15">
         <v>2</v>
       </c>
-      <c r="H357" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H357" s="30">
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
@@ -18507,9 +18518,9 @@
       <c r="G358" s="15">
         <v>3</v>
       </c>
-      <c r="H358" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H358" s="30">
+        <f t="shared" si="11"/>
+        <v>900</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
@@ -18535,9 +18546,9 @@
       <c r="G359" s="15">
         <v>3</v>
       </c>
-      <c r="H359" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H359" s="30">
+        <f t="shared" si="11"/>
+        <v>900</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
@@ -18563,9 +18574,9 @@
       <c r="G360" s="15">
         <v>4</v>
       </c>
-      <c r="H360" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H360" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
@@ -18591,9 +18602,9 @@
       <c r="G361" s="15">
         <v>4</v>
       </c>
-      <c r="H361" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H361" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
@@ -18619,9 +18630,9 @@
       <c r="G362" s="15">
         <v>2</v>
       </c>
-      <c r="H362" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H362" s="30">
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
@@ -18647,9 +18658,9 @@
       <c r="G363" s="15">
         <v>4</v>
       </c>
-      <c r="H363" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H363" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
@@ -18675,9 +18686,9 @@
       <c r="G364" s="15">
         <v>4</v>
       </c>
-      <c r="H364" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H364" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
@@ -18703,9 +18714,9 @@
       <c r="G365" s="15">
         <v>2</v>
       </c>
-      <c r="H365" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H365" s="30">
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
@@ -18731,9 +18742,9 @@
       <c r="G366" s="15">
         <v>4</v>
       </c>
-      <c r="H366" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H366" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
@@ -18759,9 +18770,9 @@
       <c r="G367" s="15">
         <v>3</v>
       </c>
-      <c r="H367" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H367" s="30">
+        <f t="shared" si="11"/>
+        <v>900</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
@@ -18787,9 +18798,9 @@
       <c r="G368" s="15">
         <v>1</v>
       </c>
-      <c r="H368" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H368" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
@@ -18815,9 +18826,9 @@
       <c r="G369" s="15">
         <v>1</v>
       </c>
-      <c r="H369" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H369" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
@@ -18843,9 +18854,9 @@
       <c r="G370" s="15">
         <v>2</v>
       </c>
-      <c r="H370" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H370" s="30">
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
@@ -18871,9 +18882,9 @@
       <c r="G371" s="15">
         <v>4</v>
       </c>
-      <c r="H371" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H371" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
@@ -18899,9 +18910,9 @@
       <c r="G372" s="15">
         <v>4</v>
       </c>
-      <c r="H372" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H372" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
@@ -18927,9 +18938,9 @@
       <c r="G373" s="15">
         <v>3</v>
       </c>
-      <c r="H373" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H373" s="30">
+        <f t="shared" si="11"/>
+        <v>900</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
@@ -18955,9 +18966,9 @@
       <c r="G374" s="15">
         <v>2</v>
       </c>
-      <c r="H374" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H374" s="30">
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
@@ -18983,9 +18994,9 @@
       <c r="G375" s="15">
         <v>4</v>
       </c>
-      <c r="H375" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H375" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
@@ -19011,9 +19022,9 @@
       <c r="G376" s="15">
         <v>2</v>
       </c>
-      <c r="H376" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H376" s="30">
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
@@ -19039,9 +19050,9 @@
       <c r="G377" s="15">
         <v>3</v>
       </c>
-      <c r="H377" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H377" s="30">
+        <f t="shared" si="11"/>
+        <v>900</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
@@ -19067,9 +19078,9 @@
       <c r="G378" s="15">
         <v>2</v>
       </c>
-      <c r="H378" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H378" s="30">
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
@@ -19095,9 +19106,9 @@
       <c r="G379" s="15">
         <v>4</v>
       </c>
-      <c r="H379" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H379" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
@@ -19123,9 +19134,9 @@
       <c r="G380" s="15">
         <v>4</v>
       </c>
-      <c r="H380" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H380" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
@@ -19151,9 +19162,9 @@
       <c r="G381" s="15">
         <v>5</v>
       </c>
-      <c r="H381" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H381" s="30">
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -19179,9 +19190,9 @@
       <c r="G382" s="15">
         <v>2</v>
       </c>
-      <c r="H382" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H382" s="30">
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
@@ -19207,9 +19218,9 @@
       <c r="G383" s="15">
         <v>1</v>
       </c>
-      <c r="H383" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H383" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
@@ -19235,9 +19246,9 @@
       <c r="G384" s="15">
         <v>3</v>
       </c>
-      <c r="H384" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H384" s="30">
+        <f t="shared" si="11"/>
+        <v>900</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
@@ -19263,9 +19274,9 @@
       <c r="G385" s="15">
         <v>4</v>
       </c>
-      <c r="H385" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H385" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
@@ -19291,9 +19302,9 @@
       <c r="G386" s="15">
         <v>4</v>
       </c>
-      <c r="H386" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H386" s="30">
+        <f t="shared" si="11"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
@@ -19319,9 +19330,9 @@
       <c r="G387" s="15">
         <v>1</v>
       </c>
-      <c r="H387" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H387" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
@@ -19347,9 +19358,9 @@
       <c r="G388" s="15">
         <v>5</v>
       </c>
-      <c r="H388" s="19" t="e">
-        <f t="shared" ca="1" si="11"/>
-        <v>#NAME?</v>
+      <c r="H388" s="30">
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
@@ -19375,9 +19386,9 @@
       <c r="G389" s="15">
         <v>3</v>
       </c>
-      <c r="H389" s="19" t="e">
-        <f t="shared" ref="H389:H452" ca="1" si="13">ifs(G389=$J$4,$K$4,G389=$J$5,$K$5,G389=$J$6,$K$6,G389=$J$7,$K$7,$K$8)</f>
-        <v>#NAME?</v>
+      <c r="H389" s="30">
+        <f t="shared" ref="H389:H452" si="13">_xlfn.IFS(G389=$J$4,$K$4,G389=$J$5,$K$5,G389=$J$6,$K$6,G389=$J$7,$K$7,G389=$J$8,$K$8)</f>
+        <v>900</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
@@ -19403,9 +19414,9 @@
       <c r="G390" s="15">
         <v>4</v>
       </c>
-      <c r="H390" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H390" s="30">
+        <f t="shared" si="13"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -19431,9 +19442,9 @@
       <c r="G391" s="15">
         <v>1</v>
       </c>
-      <c r="H391" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H391" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -19459,9 +19470,9 @@
       <c r="G392" s="15">
         <v>3</v>
       </c>
-      <c r="H392" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H392" s="30">
+        <f t="shared" si="13"/>
+        <v>900</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -19487,9 +19498,9 @@
       <c r="G393" s="15">
         <v>5</v>
       </c>
-      <c r="H393" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H393" s="30">
+        <f t="shared" si="13"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
@@ -19515,9 +19526,9 @@
       <c r="G394" s="15">
         <v>5</v>
       </c>
-      <c r="H394" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H394" s="30">
+        <f t="shared" si="13"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
@@ -19543,9 +19554,9 @@
       <c r="G395" s="15">
         <v>5</v>
       </c>
-      <c r="H395" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H395" s="30">
+        <f t="shared" si="13"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
@@ -19571,9 +19582,9 @@
       <c r="G396" s="15">
         <v>4</v>
       </c>
-      <c r="H396" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H396" s="30">
+        <f t="shared" si="13"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
@@ -19599,9 +19610,9 @@
       <c r="G397" s="15">
         <v>2</v>
       </c>
-      <c r="H397" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H397" s="30">
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
@@ -19627,9 +19638,9 @@
       <c r="G398" s="15">
         <v>2</v>
       </c>
-      <c r="H398" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H398" s="30">
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -19655,9 +19666,9 @@
       <c r="G399" s="15">
         <v>5</v>
       </c>
-      <c r="H399" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H399" s="30">
+        <f t="shared" si="13"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -19683,9 +19694,9 @@
       <c r="G400" s="15">
         <v>5</v>
       </c>
-      <c r="H400" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H400" s="30">
+        <f t="shared" si="13"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
@@ -19711,9 +19722,9 @@
       <c r="G401" s="15">
         <v>4</v>
       </c>
-      <c r="H401" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H401" s="30">
+        <f t="shared" si="13"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -19739,9 +19750,9 @@
       <c r="G402" s="15">
         <v>5</v>
       </c>
-      <c r="H402" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H402" s="30">
+        <f t="shared" si="13"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -19767,9 +19778,9 @@
       <c r="G403" s="15">
         <v>3</v>
       </c>
-      <c r="H403" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H403" s="30">
+        <f t="shared" si="13"/>
+        <v>900</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -19795,9 +19806,9 @@
       <c r="G404" s="15">
         <v>2</v>
       </c>
-      <c r="H404" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H404" s="30">
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
@@ -19823,9 +19834,9 @@
       <c r="G405" s="15">
         <v>3</v>
       </c>
-      <c r="H405" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H405" s="30">
+        <f t="shared" si="13"/>
+        <v>900</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
@@ -19851,9 +19862,9 @@
       <c r="G406" s="15">
         <v>2</v>
       </c>
-      <c r="H406" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H406" s="30">
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
@@ -19879,9 +19890,9 @@
       <c r="G407" s="15">
         <v>4</v>
       </c>
-      <c r="H407" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H407" s="30">
+        <f t="shared" si="13"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
@@ -19907,9 +19918,9 @@
       <c r="G408" s="15">
         <v>2</v>
       </c>
-      <c r="H408" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H408" s="30">
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
@@ -19935,9 +19946,9 @@
       <c r="G409" s="15">
         <v>1</v>
       </c>
-      <c r="H409" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H409" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
@@ -19963,9 +19974,9 @@
       <c r="G410" s="15">
         <v>4</v>
       </c>
-      <c r="H410" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H410" s="30">
+        <f t="shared" si="13"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
@@ -19991,9 +20002,9 @@
       <c r="G411" s="15">
         <v>4</v>
       </c>
-      <c r="H411" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H411" s="30">
+        <f t="shared" si="13"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
@@ -20019,9 +20030,9 @@
       <c r="G412" s="15">
         <v>3</v>
       </c>
-      <c r="H412" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H412" s="30">
+        <f t="shared" si="13"/>
+        <v>900</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
@@ -20047,9 +20058,9 @@
       <c r="G413" s="15">
         <v>5</v>
       </c>
-      <c r="H413" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H413" s="30">
+        <f t="shared" si="13"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
@@ -20075,9 +20086,9 @@
       <c r="G414" s="15">
         <v>3</v>
       </c>
-      <c r="H414" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H414" s="30">
+        <f t="shared" si="13"/>
+        <v>900</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
@@ -20103,9 +20114,9 @@
       <c r="G415" s="15">
         <v>2</v>
       </c>
-      <c r="H415" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H415" s="30">
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
@@ -20131,9 +20142,9 @@
       <c r="G416" s="15">
         <v>2</v>
       </c>
-      <c r="H416" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H416" s="30">
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
@@ -20159,9 +20170,9 @@
       <c r="G417" s="15">
         <v>2</v>
       </c>
-      <c r="H417" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H417" s="30">
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
@@ -20187,9 +20198,9 @@
       <c r="G418" s="15">
         <v>1</v>
       </c>
-      <c r="H418" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H418" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
@@ -20215,9 +20226,9 @@
       <c r="G419" s="15">
         <v>4</v>
       </c>
-      <c r="H419" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H419" s="30">
+        <f t="shared" si="13"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
@@ -20243,9 +20254,9 @@
       <c r="G420" s="15">
         <v>2</v>
       </c>
-      <c r="H420" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H420" s="30">
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
@@ -20271,9 +20282,9 @@
       <c r="G421" s="15">
         <v>3</v>
       </c>
-      <c r="H421" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H421" s="30">
+        <f t="shared" si="13"/>
+        <v>900</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
@@ -20299,9 +20310,9 @@
       <c r="G422" s="15">
         <v>1</v>
       </c>
-      <c r="H422" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H422" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
@@ -20327,9 +20338,9 @@
       <c r="G423" s="15">
         <v>4</v>
       </c>
-      <c r="H423" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H423" s="30">
+        <f t="shared" si="13"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
@@ -20355,9 +20366,9 @@
       <c r="G424" s="15">
         <v>3</v>
       </c>
-      <c r="H424" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H424" s="30">
+        <f t="shared" si="13"/>
+        <v>900</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
@@ -20383,9 +20394,9 @@
       <c r="G425" s="15">
         <v>2</v>
       </c>
-      <c r="H425" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H425" s="30">
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
@@ -20411,9 +20422,9 @@
       <c r="G426" s="15">
         <v>5</v>
       </c>
-      <c r="H426" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H426" s="30">
+        <f t="shared" si="13"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
@@ -20431,7 +20442,7 @@
       </c>
       <c r="E427" s="17">
         <f t="shared" ca="1" si="12"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F427" s="18">
         <v>70301</v>
@@ -20439,9 +20450,9 @@
       <c r="G427" s="15">
         <v>2</v>
       </c>
-      <c r="H427" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H427" s="30">
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
@@ -20459,7 +20470,7 @@
       </c>
       <c r="E428" s="17">
         <f t="shared" ca="1" si="12"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F428" s="18">
         <v>74004</v>
@@ -20467,9 +20478,9 @@
       <c r="G428" s="15">
         <v>4</v>
       </c>
-      <c r="H428" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H428" s="30">
+        <f t="shared" si="13"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
@@ -20495,9 +20506,9 @@
       <c r="G429" s="15">
         <v>1</v>
       </c>
-      <c r="H429" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H429" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
@@ -20523,9 +20534,9 @@
       <c r="G430" s="15">
         <v>5</v>
       </c>
-      <c r="H430" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H430" s="30">
+        <f t="shared" si="13"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
@@ -20551,9 +20562,9 @@
       <c r="G431" s="15">
         <v>1</v>
       </c>
-      <c r="H431" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H431" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
@@ -20579,9 +20590,9 @@
       <c r="G432" s="15">
         <v>5</v>
       </c>
-      <c r="H432" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H432" s="30">
+        <f t="shared" si="13"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
@@ -20607,9 +20618,9 @@
       <c r="G433" s="15">
         <v>4</v>
       </c>
-      <c r="H433" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H433" s="30">
+        <f t="shared" si="13"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
@@ -20635,9 +20646,9 @@
       <c r="G434" s="15">
         <v>2</v>
       </c>
-      <c r="H434" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H434" s="30">
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
@@ -20663,9 +20674,9 @@
       <c r="G435" s="15">
         <v>5</v>
       </c>
-      <c r="H435" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H435" s="30">
+        <f t="shared" si="13"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
@@ -20691,9 +20702,9 @@
       <c r="G436" s="15">
         <v>1</v>
       </c>
-      <c r="H436" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H436" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
@@ -20719,9 +20730,9 @@
       <c r="G437" s="15">
         <v>1</v>
       </c>
-      <c r="H437" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H437" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
@@ -20747,9 +20758,9 @@
       <c r="G438" s="15">
         <v>4</v>
       </c>
-      <c r="H438" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H438" s="30">
+        <f t="shared" si="13"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
@@ -20775,9 +20786,9 @@
       <c r="G439" s="15">
         <v>1</v>
       </c>
-      <c r="H439" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H439" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
@@ -20803,9 +20814,9 @@
       <c r="G440" s="15">
         <v>5</v>
       </c>
-      <c r="H440" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H440" s="30">
+        <f t="shared" si="13"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
@@ -20831,9 +20842,9 @@
       <c r="G441" s="15">
         <v>2</v>
       </c>
-      <c r="H441" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H441" s="30">
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
@@ -20859,9 +20870,9 @@
       <c r="G442" s="15">
         <v>1</v>
       </c>
-      <c r="H442" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H442" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
@@ -20887,9 +20898,9 @@
       <c r="G443" s="15">
         <v>4</v>
       </c>
-      <c r="H443" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H443" s="30">
+        <f t="shared" si="13"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
@@ -20915,9 +20926,9 @@
       <c r="G444" s="15">
         <v>5</v>
       </c>
-      <c r="H444" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H444" s="30">
+        <f t="shared" si="13"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
@@ -20943,9 +20954,9 @@
       <c r="G445" s="15">
         <v>5</v>
       </c>
-      <c r="H445" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H445" s="30">
+        <f t="shared" si="13"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
@@ -20971,9 +20982,9 @@
       <c r="G446" s="15">
         <v>3</v>
       </c>
-      <c r="H446" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H446" s="30">
+        <f t="shared" si="13"/>
+        <v>900</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
@@ -20999,9 +21010,9 @@
       <c r="G447" s="15">
         <v>3</v>
       </c>
-      <c r="H447" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H447" s="30">
+        <f t="shared" si="13"/>
+        <v>900</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
@@ -21027,9 +21038,9 @@
       <c r="G448" s="15">
         <v>2</v>
       </c>
-      <c r="H448" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H448" s="30">
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
@@ -21055,9 +21066,9 @@
       <c r="G449" s="15">
         <v>1</v>
       </c>
-      <c r="H449" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H449" s="30">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
@@ -21083,9 +21094,9 @@
       <c r="G450" s="15">
         <v>5</v>
       </c>
-      <c r="H450" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H450" s="30">
+        <f t="shared" si="13"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
@@ -21111,9 +21122,9 @@
       <c r="G451" s="15">
         <v>4</v>
       </c>
-      <c r="H451" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H451" s="30">
+        <f t="shared" si="13"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
@@ -21139,9 +21150,9 @@
       <c r="G452" s="15">
         <v>2</v>
       </c>
-      <c r="H452" s="19" t="e">
-        <f t="shared" ca="1" si="13"/>
-        <v>#NAME?</v>
+      <c r="H452" s="30">
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
@@ -21167,9 +21178,9 @@
       <c r="G453" s="15">
         <v>3</v>
       </c>
-      <c r="H453" s="19" t="e">
-        <f t="shared" ref="H453:H516" ca="1" si="15">ifs(G453=$J$4,$K$4,G453=$J$5,$K$5,G453=$J$6,$K$6,G453=$J$7,$K$7,$K$8)</f>
-        <v>#NAME?</v>
+      <c r="H453" s="30">
+        <f t="shared" ref="H453:H516" si="15">_xlfn.IFS(G453=$J$4,$K$4,G453=$J$5,$K$5,G453=$J$6,$K$6,G453=$J$7,$K$7,G453=$J$8,$K$8)</f>
+        <v>900</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
@@ -21195,9 +21206,9 @@
       <c r="G454" s="15">
         <v>1</v>
       </c>
-      <c r="H454" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H454" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
@@ -21223,9 +21234,9 @@
       <c r="G455" s="15">
         <v>1</v>
       </c>
-      <c r="H455" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H455" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
@@ -21251,9 +21262,9 @@
       <c r="G456" s="15">
         <v>3</v>
       </c>
-      <c r="H456" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H456" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
@@ -21279,9 +21290,9 @@
       <c r="G457" s="15">
         <v>4</v>
       </c>
-      <c r="H457" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H457" s="30">
+        <f t="shared" si="15"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
@@ -21307,9 +21318,9 @@
       <c r="G458" s="15">
         <v>1</v>
       </c>
-      <c r="H458" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H458" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
@@ -21335,9 +21346,9 @@
       <c r="G459" s="15">
         <v>4</v>
       </c>
-      <c r="H459" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H459" s="30">
+        <f t="shared" si="15"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
@@ -21363,9 +21374,9 @@
       <c r="G460" s="15">
         <v>4</v>
       </c>
-      <c r="H460" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H460" s="30">
+        <f t="shared" si="15"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
@@ -21391,9 +21402,9 @@
       <c r="G461" s="15">
         <v>5</v>
       </c>
-      <c r="H461" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H461" s="30">
+        <f t="shared" si="15"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
@@ -21419,9 +21430,9 @@
       <c r="G462" s="15">
         <v>4</v>
       </c>
-      <c r="H462" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H462" s="30">
+        <f t="shared" si="15"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
@@ -21447,9 +21458,9 @@
       <c r="G463" s="15">
         <v>3</v>
       </c>
-      <c r="H463" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H463" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
@@ -21475,9 +21486,9 @@
       <c r="G464" s="15">
         <v>1</v>
       </c>
-      <c r="H464" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H464" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
@@ -21503,9 +21514,9 @@
       <c r="G465" s="15">
         <v>4</v>
       </c>
-      <c r="H465" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H465" s="30">
+        <f t="shared" si="15"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
@@ -21531,9 +21542,9 @@
       <c r="G466" s="15">
         <v>3</v>
       </c>
-      <c r="H466" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H466" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
@@ -21559,9 +21570,9 @@
       <c r="G467" s="15">
         <v>3</v>
       </c>
-      <c r="H467" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H467" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
@@ -21587,9 +21598,9 @@
       <c r="G468" s="15">
         <v>3</v>
       </c>
-      <c r="H468" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H468" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
@@ -21615,9 +21626,9 @@
       <c r="G469" s="15">
         <v>5</v>
       </c>
-      <c r="H469" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H469" s="30">
+        <f t="shared" si="15"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
@@ -21643,9 +21654,9 @@
       <c r="G470" s="15">
         <v>1</v>
       </c>
-      <c r="H470" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H470" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
@@ -21671,9 +21682,9 @@
       <c r="G471" s="15">
         <v>5</v>
       </c>
-      <c r="H471" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H471" s="30">
+        <f t="shared" si="15"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
@@ -21699,9 +21710,9 @@
       <c r="G472" s="15">
         <v>3</v>
       </c>
-      <c r="H472" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H472" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
@@ -21727,9 +21738,9 @@
       <c r="G473" s="15">
         <v>4</v>
       </c>
-      <c r="H473" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H473" s="30">
+        <f t="shared" si="15"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
@@ -21755,9 +21766,9 @@
       <c r="G474" s="15">
         <v>5</v>
       </c>
-      <c r="H474" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H474" s="30">
+        <f t="shared" si="15"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
@@ -21783,9 +21794,9 @@
       <c r="G475" s="15">
         <v>2</v>
       </c>
-      <c r="H475" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H475" s="30">
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
@@ -21811,9 +21822,9 @@
       <c r="G476" s="15">
         <v>5</v>
       </c>
-      <c r="H476" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H476" s="30">
+        <f t="shared" si="15"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
@@ -21839,9 +21850,9 @@
       <c r="G477" s="15">
         <v>2</v>
       </c>
-      <c r="H477" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H477" s="30">
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
@@ -21867,9 +21878,9 @@
       <c r="G478" s="15">
         <v>3</v>
       </c>
-      <c r="H478" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H478" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
@@ -21895,9 +21906,9 @@
       <c r="G479" s="15">
         <v>5</v>
       </c>
-      <c r="H479" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H479" s="30">
+        <f t="shared" si="15"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
@@ -21923,9 +21934,9 @@
       <c r="G480" s="15">
         <v>2</v>
       </c>
-      <c r="H480" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H480" s="30">
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
@@ -21951,9 +21962,9 @@
       <c r="G481" s="15">
         <v>2</v>
       </c>
-      <c r="H481" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H481" s="30">
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
@@ -21979,9 +21990,9 @@
       <c r="G482" s="15">
         <v>3</v>
       </c>
-      <c r="H482" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H482" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
@@ -22007,9 +22018,9 @@
       <c r="G483" s="15">
         <v>2</v>
       </c>
-      <c r="H483" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H483" s="30">
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
@@ -22035,9 +22046,9 @@
       <c r="G484" s="15">
         <v>4</v>
       </c>
-      <c r="H484" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H484" s="30">
+        <f t="shared" si="15"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
@@ -22063,9 +22074,9 @@
       <c r="G485" s="15">
         <v>3</v>
       </c>
-      <c r="H485" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H485" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
@@ -22091,9 +22102,9 @@
       <c r="G486" s="15">
         <v>3</v>
       </c>
-      <c r="H486" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H486" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
@@ -22119,9 +22130,9 @@
       <c r="G487" s="15">
         <v>2</v>
       </c>
-      <c r="H487" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H487" s="30">
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
@@ -22147,9 +22158,9 @@
       <c r="G488" s="15">
         <v>5</v>
       </c>
-      <c r="H488" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H488" s="30">
+        <f t="shared" si="15"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
@@ -22175,9 +22186,9 @@
       <c r="G489" s="15">
         <v>4</v>
       </c>
-      <c r="H489" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H489" s="30">
+        <f t="shared" si="15"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
@@ -22203,9 +22214,9 @@
       <c r="G490" s="15">
         <v>5</v>
       </c>
-      <c r="H490" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H490" s="30">
+        <f t="shared" si="15"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
@@ -22231,9 +22242,9 @@
       <c r="G491" s="15">
         <v>3</v>
       </c>
-      <c r="H491" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H491" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
@@ -22259,9 +22270,9 @@
       <c r="G492" s="15">
         <v>1</v>
       </c>
-      <c r="H492" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H492" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
@@ -22287,9 +22298,9 @@
       <c r="G493" s="15">
         <v>2</v>
       </c>
-      <c r="H493" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H493" s="30">
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
@@ -22315,9 +22326,9 @@
       <c r="G494" s="15">
         <v>3</v>
       </c>
-      <c r="H494" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H494" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
@@ -22343,9 +22354,9 @@
       <c r="G495" s="15">
         <v>2</v>
       </c>
-      <c r="H495" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H495" s="30">
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
@@ -22371,9 +22382,9 @@
       <c r="G496" s="15">
         <v>3</v>
       </c>
-      <c r="H496" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H496" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
@@ -22399,9 +22410,9 @@
       <c r="G497" s="15">
         <v>3</v>
       </c>
-      <c r="H497" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H497" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
@@ -22427,9 +22438,9 @@
       <c r="G498" s="15">
         <v>3</v>
       </c>
-      <c r="H498" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H498" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
@@ -22455,9 +22466,9 @@
       <c r="G499" s="15">
         <v>1</v>
       </c>
-      <c r="H499" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H499" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
@@ -22483,9 +22494,9 @@
       <c r="G500" s="15">
         <v>4</v>
       </c>
-      <c r="H500" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H500" s="30">
+        <f t="shared" si="15"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
@@ -22511,9 +22522,9 @@
       <c r="G501" s="15">
         <v>4</v>
       </c>
-      <c r="H501" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H501" s="30">
+        <f t="shared" si="15"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
@@ -22539,9 +22550,9 @@
       <c r="G502" s="15">
         <v>3</v>
       </c>
-      <c r="H502" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H502" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
@@ -22567,9 +22578,9 @@
       <c r="G503" s="15">
         <v>1</v>
       </c>
-      <c r="H503" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H503" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
@@ -22595,9 +22606,9 @@
       <c r="G504" s="15">
         <v>4</v>
       </c>
-      <c r="H504" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H504" s="30">
+        <f t="shared" si="15"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
@@ -22623,9 +22634,9 @@
       <c r="G505" s="15">
         <v>1</v>
       </c>
-      <c r="H505" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H505" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
@@ -22651,9 +22662,9 @@
       <c r="G506" s="15">
         <v>4</v>
       </c>
-      <c r="H506" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H506" s="30">
+        <f t="shared" si="15"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
@@ -22679,9 +22690,9 @@
       <c r="G507" s="15">
         <v>1</v>
       </c>
-      <c r="H507" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H507" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
@@ -22707,9 +22718,9 @@
       <c r="G508" s="15">
         <v>4</v>
       </c>
-      <c r="H508" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H508" s="30">
+        <f t="shared" si="15"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
@@ -22735,9 +22746,9 @@
       <c r="G509" s="15">
         <v>5</v>
       </c>
-      <c r="H509" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H509" s="30">
+        <f t="shared" si="15"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
@@ -22763,9 +22774,9 @@
       <c r="G510" s="15">
         <v>5</v>
       </c>
-      <c r="H510" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H510" s="30">
+        <f t="shared" si="15"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
@@ -22791,9 +22802,9 @@
       <c r="G511" s="15">
         <v>1</v>
       </c>
-      <c r="H511" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H511" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
@@ -22819,9 +22830,9 @@
       <c r="G512" s="15">
         <v>3</v>
       </c>
-      <c r="H512" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H512" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
@@ -22847,9 +22858,9 @@
       <c r="G513" s="15">
         <v>2</v>
       </c>
-      <c r="H513" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H513" s="30">
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
@@ -22875,9 +22886,9 @@
       <c r="G514" s="15">
         <v>1</v>
       </c>
-      <c r="H514" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H514" s="30">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
@@ -22903,9 +22914,9 @@
       <c r="G515" s="15">
         <v>3</v>
       </c>
-      <c r="H515" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H515" s="30">
+        <f t="shared" si="15"/>
+        <v>900</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
@@ -22931,9 +22942,9 @@
       <c r="G516" s="15">
         <v>2</v>
       </c>
-      <c r="H516" s="19" t="e">
-        <f t="shared" ca="1" si="15"/>
-        <v>#NAME?</v>
+      <c r="H516" s="30">
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
@@ -22959,9 +22970,9 @@
       <c r="G517" s="15">
         <v>4</v>
       </c>
-      <c r="H517" s="19" t="e">
-        <f t="shared" ref="H517:H580" ca="1" si="17">ifs(G517=$J$4,$K$4,G517=$J$5,$K$5,G517=$J$6,$K$6,G517=$J$7,$K$7,$K$8)</f>
-        <v>#NAME?</v>
+      <c r="H517" s="30">
+        <f t="shared" ref="H517:H580" si="17">_xlfn.IFS(G517=$J$4,$K$4,G517=$J$5,$K$5,G517=$J$6,$K$6,G517=$J$7,$K$7,G517=$J$8,$K$8)</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
@@ -22987,9 +22998,9 @@
       <c r="G518" s="15">
         <v>4</v>
       </c>
-      <c r="H518" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H518" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
@@ -23015,9 +23026,9 @@
       <c r="G519" s="15">
         <v>2</v>
       </c>
-      <c r="H519" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H519" s="30">
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
@@ -23043,9 +23054,9 @@
       <c r="G520" s="15">
         <v>2</v>
       </c>
-      <c r="H520" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H520" s="30">
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
@@ -23071,9 +23082,9 @@
       <c r="G521" s="15">
         <v>1</v>
       </c>
-      <c r="H521" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H521" s="30">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
@@ -23099,9 +23110,9 @@
       <c r="G522" s="15">
         <v>2</v>
       </c>
-      <c r="H522" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H522" s="30">
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
@@ -23127,9 +23138,9 @@
       <c r="G523" s="15">
         <v>2</v>
       </c>
-      <c r="H523" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H523" s="30">
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
@@ -23155,9 +23166,9 @@
       <c r="G524" s="15">
         <v>1</v>
       </c>
-      <c r="H524" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H524" s="30">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
@@ -23183,9 +23194,9 @@
       <c r="G525" s="15">
         <v>5</v>
       </c>
-      <c r="H525" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H525" s="30">
+        <f t="shared" si="17"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
@@ -23211,9 +23222,9 @@
       <c r="G526" s="15">
         <v>5</v>
       </c>
-      <c r="H526" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H526" s="30">
+        <f t="shared" si="17"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
@@ -23239,9 +23250,9 @@
       <c r="G527" s="15">
         <v>2</v>
       </c>
-      <c r="H527" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H527" s="30">
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
@@ -23267,9 +23278,9 @@
       <c r="G528" s="15">
         <v>3</v>
       </c>
-      <c r="H528" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H528" s="30">
+        <f t="shared" si="17"/>
+        <v>900</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
@@ -23295,9 +23306,9 @@
       <c r="G529" s="15">
         <v>5</v>
       </c>
-      <c r="H529" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H529" s="30">
+        <f t="shared" si="17"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
@@ -23323,9 +23334,9 @@
       <c r="G530" s="15">
         <v>5</v>
       </c>
-      <c r="H530" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H530" s="30">
+        <f t="shared" si="17"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
@@ -23351,9 +23362,9 @@
       <c r="G531" s="15">
         <v>5</v>
       </c>
-      <c r="H531" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H531" s="30">
+        <f t="shared" si="17"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
@@ -23379,9 +23390,9 @@
       <c r="G532" s="15">
         <v>2</v>
       </c>
-      <c r="H532" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H532" s="30">
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
@@ -23407,9 +23418,9 @@
       <c r="G533" s="15">
         <v>5</v>
       </c>
-      <c r="H533" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H533" s="30">
+        <f t="shared" si="17"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
@@ -23435,9 +23446,9 @@
       <c r="G534" s="15">
         <v>4</v>
       </c>
-      <c r="H534" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H534" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
@@ -23463,9 +23474,9 @@
       <c r="G535" s="15">
         <v>5</v>
       </c>
-      <c r="H535" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H535" s="30">
+        <f t="shared" si="17"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
@@ -23491,9 +23502,9 @@
       <c r="G536" s="15">
         <v>4</v>
       </c>
-      <c r="H536" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H536" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
@@ -23519,9 +23530,9 @@
       <c r="G537" s="15">
         <v>5</v>
       </c>
-      <c r="H537" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H537" s="30">
+        <f t="shared" si="17"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
@@ -23547,9 +23558,9 @@
       <c r="G538" s="15">
         <v>2</v>
       </c>
-      <c r="H538" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H538" s="30">
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
@@ -23575,9 +23586,9 @@
       <c r="G539" s="15">
         <v>4</v>
       </c>
-      <c r="H539" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H539" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
@@ -23603,9 +23614,9 @@
       <c r="G540" s="15">
         <v>2</v>
       </c>
-      <c r="H540" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H540" s="30">
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
@@ -23631,9 +23642,9 @@
       <c r="G541" s="15">
         <v>4</v>
       </c>
-      <c r="H541" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H541" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
@@ -23659,9 +23670,9 @@
       <c r="G542" s="15">
         <v>1</v>
       </c>
-      <c r="H542" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H542" s="30">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
@@ -23687,9 +23698,9 @@
       <c r="G543" s="15">
         <v>3</v>
       </c>
-      <c r="H543" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H543" s="30">
+        <f t="shared" si="17"/>
+        <v>900</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
@@ -23715,9 +23726,9 @@
       <c r="G544" s="15">
         <v>4</v>
       </c>
-      <c r="H544" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H544" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
@@ -23743,9 +23754,9 @@
       <c r="G545" s="15">
         <v>4</v>
       </c>
-      <c r="H545" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H545" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
@@ -23771,9 +23782,9 @@
       <c r="G546" s="15">
         <v>1</v>
       </c>
-      <c r="H546" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H546" s="30">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
@@ -23799,9 +23810,9 @@
       <c r="G547" s="15">
         <v>4</v>
       </c>
-      <c r="H547" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H547" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
@@ -23827,9 +23838,9 @@
       <c r="G548" s="15">
         <v>4</v>
       </c>
-      <c r="H548" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H548" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
@@ -23855,9 +23866,9 @@
       <c r="G549" s="15">
         <v>5</v>
       </c>
-      <c r="H549" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H549" s="30">
+        <f t="shared" si="17"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
@@ -23883,9 +23894,9 @@
       <c r="G550" s="15">
         <v>1</v>
       </c>
-      <c r="H550" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H550" s="30">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.25">
@@ -23911,9 +23922,9 @@
       <c r="G551" s="15">
         <v>4</v>
       </c>
-      <c r="H551" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H551" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
@@ -23939,9 +23950,9 @@
       <c r="G552" s="15">
         <v>5</v>
       </c>
-      <c r="H552" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H552" s="30">
+        <f t="shared" si="17"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
@@ -23967,9 +23978,9 @@
       <c r="G553" s="15">
         <v>1</v>
       </c>
-      <c r="H553" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H553" s="30">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
@@ -23995,9 +24006,9 @@
       <c r="G554" s="15">
         <v>1</v>
       </c>
-      <c r="H554" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H554" s="30">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
@@ -24023,9 +24034,9 @@
       <c r="G555" s="15">
         <v>2</v>
       </c>
-      <c r="H555" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H555" s="30">
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
@@ -24051,9 +24062,9 @@
       <c r="G556" s="15">
         <v>2</v>
       </c>
-      <c r="H556" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H556" s="30">
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
@@ -24079,9 +24090,9 @@
       <c r="G557" s="15">
         <v>5</v>
       </c>
-      <c r="H557" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H557" s="30">
+        <f t="shared" si="17"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
@@ -24107,9 +24118,9 @@
       <c r="G558" s="15">
         <v>4</v>
       </c>
-      <c r="H558" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H558" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
@@ -24135,9 +24146,9 @@
       <c r="G559" s="15">
         <v>4</v>
       </c>
-      <c r="H559" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H559" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
@@ -24163,9 +24174,9 @@
       <c r="G560" s="15">
         <v>4</v>
       </c>
-      <c r="H560" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H560" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
@@ -24191,9 +24202,9 @@
       <c r="G561" s="15">
         <v>4</v>
       </c>
-      <c r="H561" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H561" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
@@ -24219,9 +24230,9 @@
       <c r="G562" s="15">
         <v>2</v>
       </c>
-      <c r="H562" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H562" s="30">
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
@@ -24247,9 +24258,9 @@
       <c r="G563" s="15">
         <v>2</v>
       </c>
-      <c r="H563" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H563" s="30">
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
@@ -24275,9 +24286,9 @@
       <c r="G564" s="15">
         <v>4</v>
       </c>
-      <c r="H564" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H564" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.25">
@@ -24303,9 +24314,9 @@
       <c r="G565" s="15">
         <v>4</v>
       </c>
-      <c r="H565" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H565" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
@@ -24331,9 +24342,9 @@
       <c r="G566" s="15">
         <v>1</v>
       </c>
-      <c r="H566" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H566" s="30">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
@@ -24359,9 +24370,9 @@
       <c r="G567" s="15">
         <v>5</v>
       </c>
-      <c r="H567" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H567" s="30">
+        <f t="shared" si="17"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
@@ -24387,9 +24398,9 @@
       <c r="G568" s="15">
         <v>2</v>
       </c>
-      <c r="H568" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H568" s="30">
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
@@ -24415,9 +24426,9 @@
       <c r="G569" s="15">
         <v>1</v>
       </c>
-      <c r="H569" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H569" s="30">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
@@ -24443,9 +24454,9 @@
       <c r="G570" s="15">
         <v>1</v>
       </c>
-      <c r="H570" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H570" s="30">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
@@ -24471,9 +24482,9 @@
       <c r="G571" s="15">
         <v>4</v>
       </c>
-      <c r="H571" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H571" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
@@ -24499,9 +24510,9 @@
       <c r="G572" s="15">
         <v>1</v>
       </c>
-      <c r="H572" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H572" s="30">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
@@ -24527,9 +24538,9 @@
       <c r="G573" s="15">
         <v>4</v>
       </c>
-      <c r="H573" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H573" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.25">
@@ -24555,9 +24566,9 @@
       <c r="G574" s="15">
         <v>4</v>
       </c>
-      <c r="H574" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H574" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.25">
@@ -24583,9 +24594,9 @@
       <c r="G575" s="15">
         <v>4</v>
       </c>
-      <c r="H575" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H575" s="30">
+        <f t="shared" si="17"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.25">
@@ -24611,9 +24622,9 @@
       <c r="G576" s="15">
         <v>5</v>
       </c>
-      <c r="H576" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H576" s="30">
+        <f t="shared" si="17"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.25">
@@ -24639,9 +24650,9 @@
       <c r="G577" s="15">
         <v>3</v>
       </c>
-      <c r="H577" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H577" s="30">
+        <f t="shared" si="17"/>
+        <v>900</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.25">
@@ -24667,9 +24678,9 @@
       <c r="G578" s="15">
         <v>2</v>
       </c>
-      <c r="H578" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H578" s="30">
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.25">
@@ -24695,9 +24706,9 @@
       <c r="G579" s="15">
         <v>2</v>
       </c>
-      <c r="H579" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H579" s="30">
+        <f t="shared" si="17"/>
+        <v>100</v>
       </c>
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.25">
@@ -24723,9 +24734,9 @@
       <c r="G580" s="15">
         <v>3</v>
       </c>
-      <c r="H580" s="19" t="e">
-        <f t="shared" ca="1" si="17"/>
-        <v>#NAME?</v>
+      <c r="H580" s="30">
+        <f t="shared" si="17"/>
+        <v>900</v>
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.25">
@@ -24751,9 +24762,9 @@
       <c r="G581" s="15">
         <v>2</v>
       </c>
-      <c r="H581" s="19" t="e">
-        <f t="shared" ref="H581:H644" ca="1" si="19">ifs(G581=$J$4,$K$4,G581=$J$5,$K$5,G581=$J$6,$K$6,G581=$J$7,$K$7,$K$8)</f>
-        <v>#NAME?</v>
+      <c r="H581" s="30">
+        <f t="shared" ref="H581:H644" si="19">_xlfn.IFS(G581=$J$4,$K$4,G581=$J$5,$K$5,G581=$J$6,$K$6,G581=$J$7,$K$7,G581=$J$8,$K$8)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.25">
@@ -24779,9 +24790,9 @@
       <c r="G582" s="15">
         <v>2</v>
       </c>
-      <c r="H582" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H582" s="30">
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.25">
@@ -24807,9 +24818,9 @@
       <c r="G583" s="15">
         <v>5</v>
       </c>
-      <c r="H583" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H583" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.25">
@@ -24835,9 +24846,9 @@
       <c r="G584" s="15">
         <v>5</v>
       </c>
-      <c r="H584" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H584" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.25">
@@ -24863,9 +24874,9 @@
       <c r="G585" s="15">
         <v>2</v>
       </c>
-      <c r="H585" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H585" s="30">
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.25">
@@ -24891,9 +24902,9 @@
       <c r="G586" s="15">
         <v>5</v>
       </c>
-      <c r="H586" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H586" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
@@ -24919,9 +24930,9 @@
       <c r="G587" s="15">
         <v>4</v>
       </c>
-      <c r="H587" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H587" s="30">
+        <f t="shared" si="19"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.25">
@@ -24947,9 +24958,9 @@
       <c r="G588" s="15">
         <v>1</v>
       </c>
-      <c r="H588" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H588" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.25">
@@ -24975,9 +24986,9 @@
       <c r="G589" s="15">
         <v>3</v>
       </c>
-      <c r="H589" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H589" s="30">
+        <f t="shared" si="19"/>
+        <v>900</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
@@ -25003,9 +25014,9 @@
       <c r="G590" s="15">
         <v>3</v>
       </c>
-      <c r="H590" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H590" s="30">
+        <f t="shared" si="19"/>
+        <v>900</v>
       </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.25">
@@ -25031,9 +25042,9 @@
       <c r="G591" s="15">
         <v>4</v>
       </c>
-      <c r="H591" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H591" s="30">
+        <f t="shared" si="19"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.25">
@@ -25059,9 +25070,9 @@
       <c r="G592" s="15">
         <v>5</v>
       </c>
-      <c r="H592" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H592" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.25">
@@ -25087,9 +25098,9 @@
       <c r="G593" s="15">
         <v>5</v>
       </c>
-      <c r="H593" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H593" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.25">
@@ -25115,9 +25126,9 @@
       <c r="G594" s="15">
         <v>5</v>
       </c>
-      <c r="H594" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H594" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.25">
@@ -25143,9 +25154,9 @@
       <c r="G595" s="15">
         <v>2</v>
       </c>
-      <c r="H595" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H595" s="30">
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.25">
@@ -25171,9 +25182,9 @@
       <c r="G596" s="15">
         <v>5</v>
       </c>
-      <c r="H596" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H596" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.25">
@@ -25199,9 +25210,9 @@
       <c r="G597" s="15">
         <v>4</v>
       </c>
-      <c r="H597" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H597" s="30">
+        <f t="shared" si="19"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.25">
@@ -25227,9 +25238,9 @@
       <c r="G598" s="15">
         <v>3</v>
       </c>
-      <c r="H598" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H598" s="30">
+        <f t="shared" si="19"/>
+        <v>900</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.25">
@@ -25255,9 +25266,9 @@
       <c r="G599" s="15">
         <v>3</v>
       </c>
-      <c r="H599" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H599" s="30">
+        <f t="shared" si="19"/>
+        <v>900</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.25">
@@ -25283,9 +25294,9 @@
       <c r="G600" s="15">
         <v>3</v>
       </c>
-      <c r="H600" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H600" s="30">
+        <f t="shared" si="19"/>
+        <v>900</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.25">
@@ -25311,9 +25322,9 @@
       <c r="G601" s="15">
         <v>5</v>
       </c>
-      <c r="H601" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H601" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.25">
@@ -25339,9 +25350,9 @@
       <c r="G602" s="15">
         <v>3</v>
       </c>
-      <c r="H602" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H602" s="30">
+        <f t="shared" si="19"/>
+        <v>900</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.25">
@@ -25367,9 +25378,9 @@
       <c r="G603" s="15">
         <v>4</v>
       </c>
-      <c r="H603" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H603" s="30">
+        <f t="shared" si="19"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.25">
@@ -25395,9 +25406,9 @@
       <c r="G604" s="15">
         <v>4</v>
       </c>
-      <c r="H604" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H604" s="30">
+        <f t="shared" si="19"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
@@ -25423,9 +25434,9 @@
       <c r="G605" s="15">
         <v>5</v>
       </c>
-      <c r="H605" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H605" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
@@ -25451,9 +25462,9 @@
       <c r="G606" s="15">
         <v>3</v>
       </c>
-      <c r="H606" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H606" s="30">
+        <f t="shared" si="19"/>
+        <v>900</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.25">
@@ -25479,9 +25490,9 @@
       <c r="G607" s="15">
         <v>2</v>
       </c>
-      <c r="H607" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H607" s="30">
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.25">
@@ -25507,9 +25518,9 @@
       <c r="G608" s="15">
         <v>4</v>
       </c>
-      <c r="H608" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H608" s="30">
+        <f t="shared" si="19"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.25">
@@ -25535,9 +25546,9 @@
       <c r="G609" s="15">
         <v>5</v>
       </c>
-      <c r="H609" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H609" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.25">
@@ -25563,9 +25574,9 @@
       <c r="G610" s="15">
         <v>1</v>
       </c>
-      <c r="H610" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H610" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.25">
@@ -25591,9 +25602,9 @@
       <c r="G611" s="15">
         <v>2</v>
       </c>
-      <c r="H611" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H611" s="30">
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.25">
@@ -25619,9 +25630,9 @@
       <c r="G612" s="15">
         <v>1</v>
       </c>
-      <c r="H612" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H612" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">
@@ -25647,9 +25658,9 @@
       <c r="G613" s="15">
         <v>3</v>
       </c>
-      <c r="H613" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H613" s="30">
+        <f t="shared" si="19"/>
+        <v>900</v>
       </c>
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.25">
@@ -25675,9 +25686,9 @@
       <c r="G614" s="15">
         <v>4</v>
       </c>
-      <c r="H614" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H614" s="30">
+        <f t="shared" si="19"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.25">
@@ -25703,9 +25714,9 @@
       <c r="G615" s="15">
         <v>1</v>
       </c>
-      <c r="H615" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H615" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.25">
@@ -25731,9 +25742,9 @@
       <c r="G616" s="15">
         <v>1</v>
       </c>
-      <c r="H616" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H616" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.25">
@@ -25759,9 +25770,9 @@
       <c r="G617" s="15">
         <v>2</v>
       </c>
-      <c r="H617" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H617" s="30">
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.25">
@@ -25787,9 +25798,9 @@
       <c r="G618" s="15">
         <v>4</v>
       </c>
-      <c r="H618" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H618" s="30">
+        <f t="shared" si="19"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.25">
@@ -25815,9 +25826,9 @@
       <c r="G619" s="15">
         <v>5</v>
       </c>
-      <c r="H619" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H619" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.25">
@@ -25843,9 +25854,9 @@
       <c r="G620" s="15">
         <v>1</v>
       </c>
-      <c r="H620" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H620" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.25">
@@ -25871,9 +25882,9 @@
       <c r="G621" s="15">
         <v>5</v>
       </c>
-      <c r="H621" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H621" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.25">
@@ -25899,9 +25910,9 @@
       <c r="G622" s="15">
         <v>5</v>
       </c>
-      <c r="H622" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H622" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.25">
@@ -25927,9 +25938,9 @@
       <c r="G623" s="15">
         <v>5</v>
       </c>
-      <c r="H623" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H623" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.25">
@@ -25955,9 +25966,9 @@
       <c r="G624" s="15">
         <v>5</v>
       </c>
-      <c r="H624" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H624" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.25">
@@ -25983,9 +25994,9 @@
       <c r="G625" s="15">
         <v>1</v>
       </c>
-      <c r="H625" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H625" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8" x14ac:dyDescent="0.25">
@@ -26011,9 +26022,9 @@
       <c r="G626" s="15">
         <v>1</v>
       </c>
-      <c r="H626" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H626" s="30">
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.25">
@@ -26039,9 +26050,9 @@
       <c r="G627" s="15">
         <v>4</v>
       </c>
-      <c r="H627" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H627" s="30">
+        <f t="shared" si="19"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.25">
@@ -26067,9 +26078,9 @@
       <c r="G628" s="15">
         <v>2</v>
       </c>
-      <c r="H628" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H628" s="30">
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.25">
@@ -26095,9 +26106,9 @@
       <c r="G629" s="15">
         <v>5</v>
       </c>
-      <c r="H629" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H629" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.25">
@@ -26123,9 +26134,9 @@
       <c r="G630" s="15">
         <v>5</v>
       </c>
-      <c r="H630" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H630" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.25">
@@ -26151,9 +26162,9 @@
       <c r="G631" s="15">
         <v>3</v>
       </c>
-      <c r="H631" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H631" s="30">
+        <f t="shared" si="19"/>
+        <v>900</v>
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.25">
@@ -26179,9 +26190,9 @@
       <c r="G632" s="15">
         <v>2</v>
       </c>
-      <c r="H632" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H632" s="30">
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.25">
@@ -26207,9 +26218,9 @@
       <c r="G633" s="15">
         <v>2</v>
       </c>
-      <c r="H633" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H633" s="30">
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.25">
@@ -26235,9 +26246,9 @@
       <c r="G634" s="15">
         <v>3</v>
       </c>
-      <c r="H634" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H634" s="30">
+        <f t="shared" si="19"/>
+        <v>900</v>
       </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.25">
@@ -26263,9 +26274,9 @@
       <c r="G635" s="15">
         <v>4</v>
       </c>
-      <c r="H635" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H635" s="30">
+        <f t="shared" si="19"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.25">
@@ -26291,9 +26302,9 @@
       <c r="G636" s="15">
         <v>5</v>
       </c>
-      <c r="H636" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H636" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.25">
@@ -26319,9 +26330,9 @@
       <c r="G637" s="15">
         <v>4</v>
       </c>
-      <c r="H637" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H637" s="30">
+        <f t="shared" si="19"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.25">
@@ -26347,9 +26358,9 @@
       <c r="G638" s="15">
         <v>4</v>
       </c>
-      <c r="H638" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H638" s="30">
+        <f t="shared" si="19"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.25">
@@ -26375,9 +26386,9 @@
       <c r="G639" s="15">
         <v>3</v>
       </c>
-      <c r="H639" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H639" s="30">
+        <f t="shared" si="19"/>
+        <v>900</v>
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.25">
@@ -26403,9 +26414,9 @@
       <c r="G640" s="15">
         <v>3</v>
       </c>
-      <c r="H640" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H640" s="30">
+        <f t="shared" si="19"/>
+        <v>900</v>
       </c>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.25">
@@ -26431,9 +26442,9 @@
       <c r="G641" s="15">
         <v>2</v>
       </c>
-      <c r="H641" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H641" s="30">
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.25">
@@ -26459,9 +26470,9 @@
       <c r="G642" s="15">
         <v>5</v>
       </c>
-      <c r="H642" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H642" s="30">
+        <f t="shared" si="19"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.25">
@@ -26487,9 +26498,9 @@
       <c r="G643" s="15">
         <v>2</v>
       </c>
-      <c r="H643" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H643" s="30">
+        <f t="shared" si="19"/>
+        <v>100</v>
       </c>
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.25">
@@ -26515,9 +26526,9 @@
       <c r="G644" s="15">
         <v>3</v>
       </c>
-      <c r="H644" s="19" t="e">
-        <f t="shared" ca="1" si="19"/>
-        <v>#NAME?</v>
+      <c r="H644" s="30">
+        <f t="shared" si="19"/>
+        <v>900</v>
       </c>
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.25">
@@ -26543,9 +26554,9 @@
       <c r="G645" s="15">
         <v>3</v>
       </c>
-      <c r="H645" s="19" t="e">
-        <f t="shared" ref="H645:H708" ca="1" si="21">ifs(G645=$J$4,$K$4,G645=$J$5,$K$5,G645=$J$6,$K$6,G645=$J$7,$K$7,$K$8)</f>
-        <v>#NAME?</v>
+      <c r="H645" s="30">
+        <f t="shared" ref="H645:H708" si="21">_xlfn.IFS(G645=$J$4,$K$4,G645=$J$5,$K$5,G645=$J$6,$K$6,G645=$J$7,$K$7,G645=$J$8,$K$8)</f>
+        <v>900</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.25">
@@ -26571,9 +26582,9 @@
       <c r="G646" s="15">
         <v>1</v>
       </c>
-      <c r="H646" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H646" s="30">
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.25">
@@ -26599,9 +26610,9 @@
       <c r="G647" s="15">
         <v>5</v>
       </c>
-      <c r="H647" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H647" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.25">
@@ -26627,9 +26638,9 @@
       <c r="G648" s="15">
         <v>3</v>
       </c>
-      <c r="H648" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H648" s="30">
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
     </row>
     <row r="649" spans="1:8" x14ac:dyDescent="0.25">
@@ -26655,9 +26666,9 @@
       <c r="G649" s="15">
         <v>5</v>
       </c>
-      <c r="H649" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H649" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.25">
@@ -26683,9 +26694,9 @@
       <c r="G650" s="15">
         <v>5</v>
       </c>
-      <c r="H650" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H650" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="651" spans="1:8" x14ac:dyDescent="0.25">
@@ -26711,9 +26722,9 @@
       <c r="G651" s="15">
         <v>1</v>
       </c>
-      <c r="H651" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H651" s="30">
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.25">
@@ -26739,9 +26750,9 @@
       <c r="G652" s="15">
         <v>4</v>
       </c>
-      <c r="H652" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H652" s="30">
+        <f t="shared" si="21"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.25">
@@ -26767,9 +26778,9 @@
       <c r="G653" s="15">
         <v>2</v>
       </c>
-      <c r="H653" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H653" s="30">
+        <f t="shared" si="21"/>
+        <v>100</v>
       </c>
     </row>
     <row r="654" spans="1:8" x14ac:dyDescent="0.25">
@@ -26795,9 +26806,9 @@
       <c r="G654" s="15">
         <v>3</v>
       </c>
-      <c r="H654" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H654" s="30">
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.25">
@@ -26823,9 +26834,9 @@
       <c r="G655" s="15">
         <v>4</v>
       </c>
-      <c r="H655" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H655" s="30">
+        <f t="shared" si="21"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.25">
@@ -26851,9 +26862,9 @@
       <c r="G656" s="15">
         <v>3</v>
       </c>
-      <c r="H656" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H656" s="30">
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.25">
@@ -26879,9 +26890,9 @@
       <c r="G657" s="15">
         <v>5</v>
       </c>
-      <c r="H657" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H657" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.25">
@@ -26907,9 +26918,9 @@
       <c r="G658" s="15">
         <v>5</v>
       </c>
-      <c r="H658" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H658" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.25">
@@ -26935,9 +26946,9 @@
       <c r="G659" s="15">
         <v>3</v>
       </c>
-      <c r="H659" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H659" s="30">
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.25">
@@ -26963,9 +26974,9 @@
       <c r="G660" s="15">
         <v>1</v>
       </c>
-      <c r="H660" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H660" s="30">
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.25">
@@ -26991,9 +27002,9 @@
       <c r="G661" s="15">
         <v>4</v>
       </c>
-      <c r="H661" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H661" s="30">
+        <f t="shared" si="21"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.25">
@@ -27019,9 +27030,9 @@
       <c r="G662" s="15">
         <v>3</v>
       </c>
-      <c r="H662" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H662" s="30">
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.25">
@@ -27047,9 +27058,9 @@
       <c r="G663" s="15">
         <v>2</v>
       </c>
-      <c r="H663" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H663" s="30">
+        <f t="shared" si="21"/>
+        <v>100</v>
       </c>
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.25">
@@ -27075,9 +27086,9 @@
       <c r="G664" s="15">
         <v>5</v>
       </c>
-      <c r="H664" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H664" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.25">
@@ -27103,9 +27114,9 @@
       <c r="G665" s="15">
         <v>2</v>
       </c>
-      <c r="H665" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H665" s="30">
+        <f t="shared" si="21"/>
+        <v>100</v>
       </c>
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.25">
@@ -27131,9 +27142,9 @@
       <c r="G666" s="15">
         <v>4</v>
       </c>
-      <c r="H666" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H666" s="30">
+        <f t="shared" si="21"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.25">
@@ -27159,9 +27170,9 @@
       <c r="G667" s="15">
         <v>2</v>
       </c>
-      <c r="H667" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H667" s="30">
+        <f t="shared" si="21"/>
+        <v>100</v>
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.25">
@@ -27187,9 +27198,9 @@
       <c r="G668" s="15">
         <v>3</v>
       </c>
-      <c r="H668" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H668" s="30">
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.25">
@@ -27215,9 +27226,9 @@
       <c r="G669" s="15">
         <v>4</v>
       </c>
-      <c r="H669" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H669" s="30">
+        <f t="shared" si="21"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.25">
@@ -27243,9 +27254,9 @@
       <c r="G670" s="15">
         <v>4</v>
       </c>
-      <c r="H670" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H670" s="30">
+        <f t="shared" si="21"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.25">
@@ -27271,9 +27282,9 @@
       <c r="G671" s="15">
         <v>3</v>
       </c>
-      <c r="H671" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H671" s="30">
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.25">
@@ -27299,9 +27310,9 @@
       <c r="G672" s="15">
         <v>5</v>
       </c>
-      <c r="H672" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H672" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.25">
@@ -27327,9 +27338,9 @@
       <c r="G673" s="15">
         <v>4</v>
       </c>
-      <c r="H673" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H673" s="30">
+        <f t="shared" si="21"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.25">
@@ -27355,9 +27366,9 @@
       <c r="G674" s="15">
         <v>5</v>
       </c>
-      <c r="H674" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H674" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.25">
@@ -27383,9 +27394,9 @@
       <c r="G675" s="15">
         <v>2</v>
       </c>
-      <c r="H675" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H675" s="30">
+        <f t="shared" si="21"/>
+        <v>100</v>
       </c>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.25">
@@ -27411,9 +27422,9 @@
       <c r="G676" s="15">
         <v>5</v>
       </c>
-      <c r="H676" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H676" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.25">
@@ -27439,9 +27450,9 @@
       <c r="G677" s="15">
         <v>5</v>
       </c>
-      <c r="H677" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H677" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.25">
@@ -27467,9 +27478,9 @@
       <c r="G678" s="15">
         <v>3</v>
       </c>
-      <c r="H678" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H678" s="30">
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.25">
@@ -27495,9 +27506,9 @@
       <c r="G679" s="15">
         <v>1</v>
       </c>
-      <c r="H679" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H679" s="30">
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.25">
@@ -27523,9 +27534,9 @@
       <c r="G680" s="15">
         <v>4</v>
       </c>
-      <c r="H680" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H680" s="30">
+        <f t="shared" si="21"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.25">
@@ -27551,9 +27562,9 @@
       <c r="G681" s="15">
         <v>2</v>
       </c>
-      <c r="H681" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H681" s="30">
+        <f t="shared" si="21"/>
+        <v>100</v>
       </c>
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.25">
@@ -27579,9 +27590,9 @@
       <c r="G682" s="15">
         <v>5</v>
       </c>
-      <c r="H682" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H682" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.25">
@@ -27607,9 +27618,9 @@
       <c r="G683" s="15">
         <v>5</v>
       </c>
-      <c r="H683" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H683" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.25">
@@ -27635,9 +27646,9 @@
       <c r="G684" s="15">
         <v>1</v>
       </c>
-      <c r="H684" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H684" s="30">
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.25">
@@ -27663,9 +27674,9 @@
       <c r="G685" s="15">
         <v>4</v>
       </c>
-      <c r="H685" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H685" s="30">
+        <f t="shared" si="21"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.25">
@@ -27691,9 +27702,9 @@
       <c r="G686" s="15">
         <v>3</v>
       </c>
-      <c r="H686" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H686" s="30">
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.25">
@@ -27719,9 +27730,9 @@
       <c r="G687" s="15">
         <v>2</v>
       </c>
-      <c r="H687" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H687" s="30">
+        <f t="shared" si="21"/>
+        <v>100</v>
       </c>
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.25">
@@ -27747,9 +27758,9 @@
       <c r="G688" s="15">
         <v>3</v>
       </c>
-      <c r="H688" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H688" s="30">
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.25">
@@ -27775,9 +27786,9 @@
       <c r="G689" s="15">
         <v>1</v>
       </c>
-      <c r="H689" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H689" s="30">
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.25">
@@ -27803,9 +27814,9 @@
       <c r="G690" s="15">
         <v>3</v>
       </c>
-      <c r="H690" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H690" s="30">
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.25">
@@ -27831,9 +27842,9 @@
       <c r="G691" s="15">
         <v>5</v>
       </c>
-      <c r="H691" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H691" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.25">
@@ -27859,9 +27870,9 @@
       <c r="G692" s="15">
         <v>2</v>
       </c>
-      <c r="H692" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H692" s="30">
+        <f t="shared" si="21"/>
+        <v>100</v>
       </c>
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.25">
@@ -27887,9 +27898,9 @@
       <c r="G693" s="15">
         <v>2</v>
       </c>
-      <c r="H693" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H693" s="30">
+        <f t="shared" si="21"/>
+        <v>100</v>
       </c>
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.25">
@@ -27915,9 +27926,9 @@
       <c r="G694" s="15">
         <v>5</v>
       </c>
-      <c r="H694" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H694" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.25">
@@ -27943,9 +27954,9 @@
       <c r="G695" s="15">
         <v>4</v>
       </c>
-      <c r="H695" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H695" s="30">
+        <f t="shared" si="21"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.25">
@@ -27971,9 +27982,9 @@
       <c r="G696" s="15">
         <v>3</v>
       </c>
-      <c r="H696" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H696" s="30">
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.25">
@@ -27999,9 +28010,9 @@
       <c r="G697" s="15">
         <v>3</v>
       </c>
-      <c r="H697" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H697" s="30">
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.25">
@@ -28027,9 +28038,9 @@
       <c r="G698" s="15">
         <v>3</v>
       </c>
-      <c r="H698" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H698" s="30">
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.25">
@@ -28055,9 +28066,9 @@
       <c r="G699" s="15">
         <v>3</v>
       </c>
-      <c r="H699" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H699" s="30">
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.25">
@@ -28083,9 +28094,9 @@
       <c r="G700" s="15">
         <v>5</v>
       </c>
-      <c r="H700" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H700" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.25">
@@ -28111,9 +28122,9 @@
       <c r="G701" s="15">
         <v>2</v>
       </c>
-      <c r="H701" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H701" s="30">
+        <f t="shared" si="21"/>
+        <v>100</v>
       </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.25">
@@ -28139,9 +28150,9 @@
       <c r="G702" s="15">
         <v>4</v>
       </c>
-      <c r="H702" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H702" s="30">
+        <f t="shared" si="21"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.25">
@@ -28167,9 +28178,9 @@
       <c r="G703" s="15">
         <v>5</v>
       </c>
-      <c r="H703" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H703" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.25">
@@ -28195,9 +28206,9 @@
       <c r="G704" s="15">
         <v>2</v>
       </c>
-      <c r="H704" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H704" s="30">
+        <f t="shared" si="21"/>
+        <v>100</v>
       </c>
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.25">
@@ -28223,9 +28234,9 @@
       <c r="G705" s="15">
         <v>5</v>
       </c>
-      <c r="H705" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H705" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.25">
@@ -28251,9 +28262,9 @@
       <c r="G706" s="15">
         <v>4</v>
       </c>
-      <c r="H706" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H706" s="30">
+        <f t="shared" si="21"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="707" spans="1:8" x14ac:dyDescent="0.25">
@@ -28279,9 +28290,9 @@
       <c r="G707" s="15">
         <v>5</v>
       </c>
-      <c r="H707" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H707" s="30">
+        <f t="shared" si="21"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.25">
@@ -28307,9 +28318,9 @@
       <c r="G708" s="15">
         <v>4</v>
       </c>
-      <c r="H708" s="19" t="e">
-        <f t="shared" ca="1" si="21"/>
-        <v>#NAME?</v>
+      <c r="H708" s="30">
+        <f t="shared" si="21"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="709" spans="1:8" x14ac:dyDescent="0.25">
@@ -28335,9 +28346,9 @@
       <c r="G709" s="15">
         <v>4</v>
       </c>
-      <c r="H709" s="19" t="e">
-        <f t="shared" ref="H709:H744" ca="1" si="23">ifs(G709=$J$4,$K$4,G709=$J$5,$K$5,G709=$J$6,$K$6,G709=$J$7,$K$7,$K$8)</f>
-        <v>#NAME?</v>
+      <c r="H709" s="30">
+        <f t="shared" ref="H709:H744" si="23">_xlfn.IFS(G709=$J$4,$K$4,G709=$J$5,$K$5,G709=$J$6,$K$6,G709=$J$7,$K$7,G709=$J$8,$K$8)</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="710" spans="1:8" x14ac:dyDescent="0.25">
@@ -28363,9 +28374,9 @@
       <c r="G710" s="15">
         <v>2</v>
       </c>
-      <c r="H710" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H710" s="30">
+        <f t="shared" si="23"/>
+        <v>100</v>
       </c>
     </row>
     <row r="711" spans="1:8" x14ac:dyDescent="0.25">
@@ -28391,9 +28402,9 @@
       <c r="G711" s="15">
         <v>5</v>
       </c>
-      <c r="H711" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H711" s="30">
+        <f t="shared" si="23"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="712" spans="1:8" x14ac:dyDescent="0.25">
@@ -28419,9 +28430,9 @@
       <c r="G712" s="15">
         <v>3</v>
       </c>
-      <c r="H712" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H712" s="30">
+        <f t="shared" si="23"/>
+        <v>900</v>
       </c>
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.25">
@@ -28447,9 +28458,9 @@
       <c r="G713" s="15">
         <v>5</v>
       </c>
-      <c r="H713" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H713" s="30">
+        <f t="shared" si="23"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.25">
@@ -28475,9 +28486,9 @@
       <c r="G714" s="15">
         <v>5</v>
       </c>
-      <c r="H714" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H714" s="30">
+        <f t="shared" si="23"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.25">
@@ -28503,9 +28514,9 @@
       <c r="G715" s="15">
         <v>2</v>
       </c>
-      <c r="H715" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H715" s="30">
+        <f t="shared" si="23"/>
+        <v>100</v>
       </c>
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.25">
@@ -28531,9 +28542,9 @@
       <c r="G716" s="15">
         <v>5</v>
       </c>
-      <c r="H716" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H716" s="30">
+        <f t="shared" si="23"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.25">
@@ -28559,9 +28570,9 @@
       <c r="G717" s="15">
         <v>2</v>
       </c>
-      <c r="H717" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H717" s="30">
+        <f t="shared" si="23"/>
+        <v>100</v>
       </c>
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.25">
@@ -28587,9 +28598,9 @@
       <c r="G718" s="15">
         <v>2</v>
       </c>
-      <c r="H718" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H718" s="30">
+        <f t="shared" si="23"/>
+        <v>100</v>
       </c>
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.25">
@@ -28615,9 +28626,9 @@
       <c r="G719" s="15">
         <v>5</v>
       </c>
-      <c r="H719" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H719" s="30">
+        <f t="shared" si="23"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.25">
@@ -28643,9 +28654,9 @@
       <c r="G720" s="15">
         <v>5</v>
       </c>
-      <c r="H720" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H720" s="30">
+        <f t="shared" si="23"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.25">
@@ -28671,9 +28682,9 @@
       <c r="G721" s="15">
         <v>5</v>
       </c>
-      <c r="H721" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H721" s="30">
+        <f t="shared" si="23"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
@@ -28699,9 +28710,9 @@
       <c r="G722" s="15">
         <v>1</v>
       </c>
-      <c r="H722" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H722" s="30">
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
@@ -28727,9 +28738,9 @@
       <c r="G723" s="15">
         <v>3</v>
       </c>
-      <c r="H723" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H723" s="30">
+        <f t="shared" si="23"/>
+        <v>900</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
@@ -28755,9 +28766,9 @@
       <c r="G724" s="15">
         <v>1</v>
       </c>
-      <c r="H724" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H724" s="30">
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.25">
@@ -28783,9 +28794,9 @@
       <c r="G725" s="15">
         <v>3</v>
       </c>
-      <c r="H725" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H725" s="30">
+        <f t="shared" si="23"/>
+        <v>900</v>
       </c>
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.25">
@@ -28811,9 +28822,9 @@
       <c r="G726" s="15">
         <v>3</v>
       </c>
-      <c r="H726" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H726" s="30">
+        <f t="shared" si="23"/>
+        <v>900</v>
       </c>
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.25">
@@ -28839,9 +28850,9 @@
       <c r="G727" s="15">
         <v>5</v>
       </c>
-      <c r="H727" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H727" s="30">
+        <f t="shared" si="23"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.25">
@@ -28867,9 +28878,9 @@
       <c r="G728" s="15">
         <v>5</v>
       </c>
-      <c r="H728" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H728" s="30">
+        <f t="shared" si="23"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.25">
@@ -28895,9 +28906,9 @@
       <c r="G729" s="15">
         <v>4</v>
       </c>
-      <c r="H729" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H729" s="30">
+        <f t="shared" si="23"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.25">
@@ -28923,9 +28934,9 @@
       <c r="G730" s="15">
         <v>4</v>
       </c>
-      <c r="H730" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H730" s="30">
+        <f t="shared" si="23"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.25">
@@ -28951,9 +28962,9 @@
       <c r="G731" s="15">
         <v>2</v>
       </c>
-      <c r="H731" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H731" s="30">
+        <f t="shared" si="23"/>
+        <v>100</v>
       </c>
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.25">
@@ -28979,9 +28990,9 @@
       <c r="G732" s="15">
         <v>2</v>
       </c>
-      <c r="H732" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H732" s="30">
+        <f t="shared" si="23"/>
+        <v>100</v>
       </c>
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.25">
@@ -29007,9 +29018,9 @@
       <c r="G733" s="15">
         <v>4</v>
       </c>
-      <c r="H733" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H733" s="30">
+        <f t="shared" si="23"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.25">
@@ -29035,9 +29046,9 @@
       <c r="G734" s="15">
         <v>1</v>
       </c>
-      <c r="H734" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H734" s="30">
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.25">
@@ -29063,9 +29074,9 @@
       <c r="G735" s="15">
         <v>5</v>
       </c>
-      <c r="H735" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H735" s="30">
+        <f t="shared" si="23"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.25">
@@ -29091,9 +29102,9 @@
       <c r="G736" s="15">
         <v>5</v>
       </c>
-      <c r="H736" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H736" s="30">
+        <f t="shared" si="23"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.25">
@@ -29119,9 +29130,9 @@
       <c r="G737" s="15">
         <v>4</v>
       </c>
-      <c r="H737" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H737" s="30">
+        <f t="shared" si="23"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.25">
@@ -29147,9 +29158,9 @@
       <c r="G738" s="15">
         <v>4</v>
       </c>
-      <c r="H738" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H738" s="30">
+        <f t="shared" si="23"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.25">
@@ -29175,9 +29186,9 @@
       <c r="G739" s="15">
         <v>5</v>
       </c>
-      <c r="H739" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H739" s="30">
+        <f t="shared" si="23"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.25">
@@ -29203,9 +29214,9 @@
       <c r="G740" s="15">
         <v>2</v>
       </c>
-      <c r="H740" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H740" s="30">
+        <f t="shared" si="23"/>
+        <v>100</v>
       </c>
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.25">
@@ -29231,9 +29242,9 @@
       <c r="G741" s="15">
         <v>2</v>
       </c>
-      <c r="H741" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H741" s="30">
+        <f t="shared" si="23"/>
+        <v>100</v>
       </c>
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.25">
@@ -29259,9 +29270,9 @@
       <c r="G742" s="15">
         <v>5</v>
       </c>
-      <c r="H742" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H742" s="30">
+        <f t="shared" si="23"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.25">
@@ -29287,9 +29298,9 @@
       <c r="G743" s="15">
         <v>1</v>
       </c>
-      <c r="H743" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H743" s="30">
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.25">
@@ -29315,9 +29326,9 @@
       <c r="G744" s="15">
         <v>1</v>
       </c>
-      <c r="H744" s="19" t="e">
-        <f t="shared" ca="1" si="23"/>
-        <v>#NAME?</v>
+      <c r="H744" s="30">
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -29335,61 +29346,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="11" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="28"/>
+    <col min="1" max="1" width="21.375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="11" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>777</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>785</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="29" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="28" t="s">
         <v>786</v>
       </c>
     </row>
